--- a/150802_AAMI_Accuracy.xlsx
+++ b/150802_AAMI_Accuracy.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23700" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="13940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AAMI_VEB_SOFF" sheetId="1" r:id="rId1"/>
     <sheet name="AAMI_SVEB_SOFF" sheetId="2" r:id="rId2"/>
     <sheet name="AAMI_VEB_SON" sheetId="3" r:id="rId3"/>
+    <sheet name="Result_Comparison" sheetId="4" r:id="rId4"/>
+    <sheet name="Not_int_Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t>RecordNum</t>
   </si>
@@ -144,13 +146,55 @@
   </si>
   <si>
     <t xml:space="preserve">SUM </t>
+  </si>
+  <si>
+    <t>전체 맞춘 갯수</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>NeuralNet</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>SoftMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Train </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 class 2 가 없다. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +224,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -211,7 +261,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,14 +363,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -371,6 +486,38 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -421,6 +568,38 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -752,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1194,23 +1373,23 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <f>(B16+D16)/(B16+C16+D16+E16)</f>
+        <f t="shared" ref="F16:F24" si="10">(B16+D16)/(B16+C16+D16+E16)</f>
         <v>0.99105011933174225</v>
       </c>
       <c r="G16">
-        <f>(B16)/(B16+C16)</f>
+        <f t="shared" ref="G16:G24" si="11">(B16)/(B16+C16)</f>
         <v>0.99871216999356083</v>
       </c>
       <c r="H16">
-        <f>D16/(D16+E16)</f>
+        <f t="shared" ref="H16:H24" si="12">D16/(D16+E16)</f>
         <v>0.89430894308943087</v>
       </c>
       <c r="I16">
-        <f>B16/(B16+E16)</f>
+        <f t="shared" ref="I16:I24" si="13">B16/(B16+E16)</f>
         <v>0.99168797953964194</v>
       </c>
       <c r="J16">
-        <f>D16/(C16+D16)</f>
+        <f t="shared" ref="J16:J24" si="14">D16/(C16+D16)</f>
         <v>0.9821428571428571</v>
       </c>
     </row>
@@ -1231,23 +1410,23 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <f>(B17+D17)/(B17+C17+D17+E17)</f>
+        <f t="shared" si="10"/>
         <v>0.99727520435967298</v>
       </c>
       <c r="G17">
-        <f>(B17)/(B17+C17)</f>
+        <f t="shared" si="11"/>
         <v>0.99761904761904763</v>
       </c>
       <c r="H17">
-        <f>D17/(D17+E17)</f>
+        <f t="shared" si="12"/>
         <v>0.99354838709677418</v>
       </c>
       <c r="I17">
-        <f>B17/(B17+E17)</f>
+        <f t="shared" si="13"/>
         <v>0.99940369707811572</v>
       </c>
       <c r="J17">
-        <f>D17/(C17+D17)</f>
+        <f t="shared" si="14"/>
         <v>0.97468354430379744</v>
       </c>
     </row>
@@ -1268,23 +1447,23 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <f>(B18+D18)/(B18+C18+D18+E18)</f>
+        <f t="shared" si="10"/>
         <v>0.99372822299651564</v>
       </c>
       <c r="G18">
-        <f>(B18)/(B18+C18)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f>D18/(D18+E18)</f>
+        <f t="shared" si="12"/>
         <v>0.94545454545454544</v>
       </c>
       <c r="I18">
-        <f>B18/(B18+E18)</f>
+        <f t="shared" si="13"/>
         <v>0.99296325254104767</v>
       </c>
       <c r="J18">
-        <f>D18/(C18+D18)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -1305,23 +1484,23 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <f>(B19+D19)/(B19+C19+D19+E19)</f>
+        <f t="shared" si="10"/>
         <v>0.99906846762925017</v>
       </c>
       <c r="G19">
-        <f>(B19)/(B19+C19)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>D19/(D19+E19)</f>
+        <f t="shared" si="12"/>
         <v>0.978494623655914</v>
       </c>
       <c r="I19">
-        <f>B19/(B19+E19)</f>
+        <f t="shared" si="13"/>
         <v>0.99902723735408561</v>
       </c>
       <c r="J19">
-        <f>D19/(C19+D19)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -1342,23 +1521,23 @@
         <v>7</v>
       </c>
       <c r="F20">
-        <f>(B20+D20)/(B20+C20+D20+E20)</f>
+        <f t="shared" si="10"/>
         <v>0.99473684210526314</v>
       </c>
       <c r="G20">
-        <f>(B20)/(B20+C20)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H20">
-        <f>D20/(D20+E20)</f>
+        <f t="shared" si="12"/>
         <v>0.81578947368421051</v>
       </c>
       <c r="I20">
-        <f>B20/(B20+E20)</f>
+        <f t="shared" si="13"/>
         <v>0.99461123941493457</v>
       </c>
       <c r="J20">
-        <f>D20/(C20+D20)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -1379,23 +1558,23 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <f>(B21+D21)/(B21+C21+D21+E21)</f>
+        <f t="shared" si="10"/>
         <v>0.99618563254926895</v>
       </c>
       <c r="G21">
-        <f>(B21)/(B21+C21)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>D21/(D21+E21)</f>
+        <f t="shared" si="12"/>
         <v>0.97916666666666663</v>
       </c>
       <c r="I21">
-        <f>B21/(B21+E21)</f>
+        <f t="shared" si="13"/>
         <v>0.99535243996901623</v>
       </c>
       <c r="J21">
-        <f>D21/(C21+D21)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -1416,23 +1595,23 @@
         <v>177</v>
       </c>
       <c r="F22">
-        <f>(B22+D22)/(B22+C22+D22+E22)</f>
+        <f t="shared" si="10"/>
         <v>0.88882101405009162</v>
       </c>
       <c r="G22">
-        <f>(B22)/(B22+C22)</f>
+        <f t="shared" si="11"/>
         <v>0.99610894941634243</v>
       </c>
       <c r="H22">
-        <f>D22/(D22+E22)</f>
+        <f t="shared" si="12"/>
         <v>0.49715909090909088</v>
       </c>
       <c r="I22">
-        <f>B22/(B22+E22)</f>
+        <f t="shared" si="13"/>
         <v>0.87851750171585452</v>
       </c>
       <c r="J22">
-        <f>D22/(C22+D22)</f>
+        <f t="shared" si="14"/>
         <v>0.97222222222222221</v>
       </c>
     </row>
@@ -1453,23 +1632,23 @@
         <v>31</v>
       </c>
       <c r="F23">
-        <f>(B23+D23)/(B23+C23+D23+E23)</f>
+        <f t="shared" si="10"/>
         <v>0.9761354888375674</v>
       </c>
       <c r="G23">
-        <f>(B23)/(B23+C23)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H23">
-        <f>D23/(D23+E23)</f>
+        <f t="shared" si="12"/>
         <v>0.86637931034482762</v>
       </c>
       <c r="I23">
-        <f>B23/(B23+E23)</f>
+        <f t="shared" si="13"/>
         <v>0.97176684881602915</v>
       </c>
       <c r="J23">
-        <f>D23/(C23+D23)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -1490,23 +1669,23 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <f>(B24+D24)/(B24+C24+D24+E24)</f>
+        <f t="shared" si="10"/>
         <v>0.99694345389709627</v>
       </c>
       <c r="G24">
-        <f>(B24)/(B24+C24)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>D24/(D24+E24)</f>
+        <f t="shared" si="12"/>
         <v>0.98843930635838151</v>
       </c>
       <c r="I24">
-        <f>B24/(B24+E24)</f>
+        <f t="shared" si="13"/>
         <v>0.99586206896551721</v>
       </c>
       <c r="J24">
-        <f>D24/(C24+D24)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -1531,23 +1710,23 @@
         <v>508</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" ref="F25" si="10">(B25+D25)/(B25+C25+D25+E25)</f>
+        <f t="shared" ref="F25" si="15">(B25+D25)/(B25+C25+D25+E25)</f>
         <v>0.97234592730929459</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" ref="G25" si="11">(B25)/(B25+C25)</f>
+        <f t="shared" ref="G25" si="16">(B25)/(B25+C25)</f>
         <v>0.98921100312963273</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ref="H25" si="12">D25/(D25+E25)</f>
+        <f t="shared" ref="H25" si="17">D25/(D25+E25)</f>
         <v>0.85730337078651686</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" ref="I25" si="13">B25/(B25+E25)</f>
+        <f t="shared" ref="I25" si="18">B25/(B25+E25)</f>
         <v>0.97929066449245816</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25" si="14">D25/(C25+D25)</f>
+        <f t="shared" ref="J25" si="19">D25/(C25+D25)</f>
         <v>0.92094146047073022</v>
       </c>
     </row>
@@ -1721,11 +1900,11 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <f>(B12+D12)/(B12+C12+D12+E12)</f>
+        <f t="shared" ref="F12:F23" si="0">(B12+D12)/(B12+C12+D12+E12)</f>
         <v>0.99725651577503427</v>
       </c>
       <c r="G12">
-        <f>B12/(B12+C12)</f>
+        <f t="shared" ref="G12:G23" si="1">B12/(B12+C12)</f>
         <v>0.99930362116991645</v>
       </c>
       <c r="H12">
@@ -1733,11 +1912,11 @@
         <v>0.86363636363636365</v>
       </c>
       <c r="I12">
-        <f>B12/(B12+E12)</f>
+        <f t="shared" ref="I12:I23" si="2">B12/(B12+E12)</f>
         <v>0.99791376912378305</v>
       </c>
       <c r="J12">
-        <f>D12/(D12+C12)</f>
+        <f t="shared" ref="J12:J23" si="3">D12/(D12+C12)</f>
         <v>0.95</v>
       </c>
     </row>
@@ -1758,11 +1937,11 @@
         <v>14</v>
       </c>
       <c r="F13">
-        <f>(B13+D13)/(B13+C13+D13+E13)</f>
+        <f t="shared" si="0"/>
         <v>0.98669032830523518</v>
       </c>
       <c r="G13">
-        <f>B13/(B13+C13)</f>
+        <f t="shared" si="1"/>
         <v>0.99910152740341418</v>
       </c>
       <c r="H13">
@@ -1770,11 +1949,11 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>B13/(B13+E13)</f>
+        <f t="shared" si="2"/>
         <v>0.98756660746003555</v>
       </c>
       <c r="J13">
-        <f>D13/(D13+C13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1795,11 +1974,11 @@
         <v>53</v>
       </c>
       <c r="F14">
-        <f>(B14+D14)/(B14+C14+D14+E14)</f>
+        <f t="shared" si="0"/>
         <v>0.9399092970521542</v>
       </c>
       <c r="G14">
-        <f>B14/(B14+C14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H14">
@@ -1807,11 +1986,11 @@
         <v>0.18461538461538463</v>
       </c>
       <c r="I14">
-        <f>B14/(B14+E14)</f>
+        <f t="shared" si="2"/>
         <v>0.93908045977011489</v>
       </c>
       <c r="J14">
-        <f>D14/(D14+C14)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1832,11 +2011,11 @@
         <v>31</v>
       </c>
       <c r="F15">
-        <f>(B15+D15)/(B15+C15+D15+E15)</f>
+        <f t="shared" si="0"/>
         <v>0.88402457757296471</v>
       </c>
       <c r="G15">
-        <f>B15/(B15+C15)</f>
+        <f t="shared" si="1"/>
         <v>0.90384615384615385</v>
       </c>
       <c r="H15">
@@ -1844,11 +2023,11 @@
         <v>0.42592592592592593</v>
       </c>
       <c r="I15">
-        <f>B15/(B15+E15)</f>
+        <f t="shared" si="2"/>
         <v>0.97325280414150128</v>
       </c>
       <c r="J15">
-        <f>D15/(D15+C15)</f>
+        <f t="shared" si="3"/>
         <v>0.16083916083916083</v>
       </c>
     </row>
@@ -1869,11 +2048,11 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f>(B16+D16)/(B16+C16+D16+E16)</f>
+        <f t="shared" si="0"/>
         <v>0.99701670644391405</v>
       </c>
       <c r="G16">
-        <f>B16/(B16+C16)</f>
+        <f t="shared" si="1"/>
         <v>0.9970149253731343</v>
       </c>
       <c r="H16">
@@ -1881,11 +2060,11 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <f>B16/(B16+E16)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J16">
-        <f>D16/(D16+C16)</f>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -1906,22 +2085,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f>(B17+D17)/(B17+C17+D17+E17)</f>
+        <f t="shared" si="0"/>
         <v>0.99379844961240305</v>
       </c>
       <c r="G17">
-        <f>B17/(B17+C17)</f>
+        <f t="shared" si="1"/>
         <v>0.99379844961240305</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <f>B17/(B17+E17)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J17">
-        <f>D17/(D17+C17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1942,23 +2121,23 @@
         <v>273</v>
       </c>
       <c r="F18">
-        <f>(B18+D18)/(B18+C18+D18+E18)</f>
+        <f t="shared" si="0"/>
         <v>0.85867895545314898</v>
       </c>
       <c r="G18">
-        <f>B18/(B18+C18)</f>
+        <f t="shared" si="1"/>
         <v>0.9981718464351006</v>
       </c>
       <c r="H18">
-        <f>D18/(D18+E18)</f>
+        <f t="shared" ref="H18:H23" si="4">D18/(D18+E18)</f>
         <v>0.125</v>
       </c>
       <c r="I18">
-        <f>B18/(B18+E18)</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="J18">
-        <f>D18/(D18+C18)</f>
+        <f t="shared" si="3"/>
         <v>0.9285714285714286</v>
       </c>
     </row>
@@ -1979,23 +2158,23 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <f>(B19+D19)/(B19+C19+D19+E19)</f>
+        <f t="shared" si="0"/>
         <v>0.99552715654952073</v>
       </c>
       <c r="G19">
-        <f>B19/(B19+C19)</f>
+        <f t="shared" si="1"/>
         <v>0.99871216999356083</v>
       </c>
       <c r="H19">
-        <f>D19/(D19+E19)</f>
+        <f t="shared" si="4"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="I19">
-        <f>B19/(B19+E19)</f>
+        <f t="shared" si="2"/>
         <v>0.9967866323907455</v>
       </c>
       <c r="J19">
-        <f>D19/(D19+C19)</f>
+        <f t="shared" si="3"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -2016,23 +2195,23 @@
         <v>7</v>
       </c>
       <c r="F20">
-        <f>(B20+D20)/(B20+C20+D20+E20)</f>
+        <f t="shared" si="0"/>
         <v>0.99352941176470588</v>
       </c>
       <c r="G20">
-        <f>B20/(B20+C20)</f>
+        <f t="shared" si="1"/>
         <v>0.99761904761904763</v>
       </c>
       <c r="H20">
-        <f>D20/(D20+E20)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="I20">
-        <f>B20/(B20+E20)</f>
+        <f t="shared" si="2"/>
         <v>0.99584076054664294</v>
       </c>
       <c r="J20">
-        <f>D20/(D20+C20)</f>
+        <f t="shared" si="3"/>
         <v>0.76470588235294112</v>
       </c>
     </row>
@@ -2053,23 +2232,23 @@
         <v>14</v>
       </c>
       <c r="F21">
-        <f>(B21+D21)/(B21+C21+D21+E21)</f>
+        <f t="shared" si="0"/>
         <v>0.97987616099071206</v>
       </c>
       <c r="G21">
-        <f>B21/(B21+C21)</f>
+        <f t="shared" si="1"/>
         <v>0.99007444168734493</v>
       </c>
       <c r="H21">
-        <f>D21/(D21+E21)</f>
+        <f t="shared" si="4"/>
         <v>0.83132530120481929</v>
       </c>
       <c r="I21">
-        <f>B21/(B21+E21)</f>
+        <f t="shared" si="2"/>
         <v>0.98843930635838151</v>
       </c>
       <c r="J21">
-        <f>D21/(D21+C21)</f>
+        <f t="shared" si="3"/>
         <v>0.85185185185185186</v>
       </c>
     </row>
@@ -2090,23 +2269,23 @@
         <v>43</v>
       </c>
       <c r="F22">
-        <f>(B22+D22)/(B22+C22+D22+E22)</f>
+        <f t="shared" si="0"/>
         <v>0.96409872849663425</v>
       </c>
       <c r="G22">
-        <f>B22/(B22+C22)</f>
+        <f t="shared" si="1"/>
         <v>0.99610894941634243</v>
       </c>
       <c r="H22">
-        <f>D22/(D22+E22)</f>
+        <f t="shared" si="4"/>
         <v>0.17307692307692307</v>
       </c>
       <c r="I22">
-        <f>B22/(B22+E22)</f>
+        <f t="shared" si="2"/>
         <v>0.96749811035525324</v>
       </c>
       <c r="J22">
-        <f>D22/(D22+C22)</f>
+        <f t="shared" si="3"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -2127,23 +2306,23 @@
         <v>847</v>
       </c>
       <c r="F23">
-        <f>(B23+D23)/(B23+C23+D23+E23)</f>
+        <f t="shared" si="0"/>
         <v>0.25352112676056338</v>
       </c>
       <c r="G23">
-        <f>B23/(B23+C23)</f>
+        <f t="shared" si="1"/>
         <v>0.99603174603174605</v>
       </c>
       <c r="H23">
-        <f>D23/(D23+E23)</f>
+        <f t="shared" si="4"/>
         <v>4.1855203619909499E-2</v>
       </c>
       <c r="I23">
-        <f>B23/(B23+E23)</f>
+        <f t="shared" si="2"/>
         <v>0.22859744990892533</v>
       </c>
       <c r="J23">
-        <f>D23/(D23+C23)</f>
+        <f t="shared" si="3"/>
         <v>0.97368421052631582</v>
       </c>
     </row>
@@ -2168,23 +2347,23 @@
         <v>1290</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24" si="0">(B24+D24)/(B24+C24+D24+E24)</f>
+        <f t="shared" ref="F24" si="5">(B24+D24)/(B24+C24+D24+E24)</f>
         <v>0.91314750568249792</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24" si="1">B24/(B24+C24)</f>
+        <f t="shared" ref="G24" si="6">B24/(B24+C24)</f>
         <v>0.98934140403973947</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24" si="2">D24/(D24+E24)</f>
+        <f t="shared" ref="H24" si="7">D24/(D24+E24)</f>
         <v>0.15075707702435814</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="3">B24/(B24+E24)</f>
+        <f t="shared" ref="I24" si="8">B24/(B24+E24)</f>
         <v>0.92098977154406814</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24" si="4">D24/(D24+C24)</f>
+        <f t="shared" ref="J24" si="9">D24/(D24+C24)</f>
         <v>0.58567774936061379</v>
       </c>
     </row>
@@ -2341,4 +2520,1025 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>1436</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>1419</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>1436</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>1533</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>1589</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>1611</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>1020</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>219</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>1019</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>255</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>1021</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>214</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>1101</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>1098</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>1099</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>1141</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>1141</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>1136</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>1151</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>1119</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1124</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>1431</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>87</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>1378</v>
+      </c>
+      <c r="D25">
+        <v>68</v>
+      </c>
+      <c r="E25">
+        <v>51</v>
+      </c>
+      <c r="F25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>1404</v>
+      </c>
+      <c r="D26">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>1381</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>1319</v>
+      </c>
+      <c r="D28">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>1337</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>993</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>284</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>993</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>284</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>994</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>284</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>1079</v>
+      </c>
+      <c r="D33">
+        <v>34</v>
+      </c>
+      <c r="E33">
+        <v>559</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>868</v>
+      </c>
+      <c r="D34">
+        <v>245</v>
+      </c>
+      <c r="E34">
+        <v>289</v>
+      </c>
+      <c r="F34">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>910</v>
+      </c>
+      <c r="D35">
+        <v>203</v>
+      </c>
+      <c r="E35">
+        <v>248</v>
+      </c>
+      <c r="F35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>815</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>817</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>817</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>1247</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>1069</v>
+      </c>
+      <c r="D40">
+        <v>179</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>1236</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>1621</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>221</v>
+      </c>
+      <c r="F42">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>1630</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>121</v>
+      </c>
+      <c r="F43">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>1631</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>1282</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>1270</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>1282</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>207</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>959</v>
+      </c>
+      <c r="D48">
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>631</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>626</v>
+      </c>
+      <c r="D49">
+        <v>366</v>
+      </c>
+      <c r="E49">
+        <v>304</v>
+      </c>
+      <c r="F49">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>632</v>
+      </c>
+      <c r="D50">
+        <v>360</v>
+      </c>
+      <c r="E50">
+        <v>295</v>
+      </c>
+      <c r="F50">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>1638</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <v>1641</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>1641</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>1551</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>110</v>
+      </c>
+      <c r="F54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/150802_AAMI_Accuracy.xlsx
+++ b/150802_AAMI_Accuracy.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="13940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13940" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AAMI_VEB_SOFF" sheetId="1" r:id="rId1"/>
     <sheet name="AAMI_SVEB_SOFF" sheetId="2" r:id="rId2"/>
     <sheet name="AAMI_VEB_SON" sheetId="3" r:id="rId3"/>
     <sheet name="Result_Comparison" sheetId="4" r:id="rId4"/>
-    <sheet name="Not_int_Test" sheetId="5" r:id="rId5"/>
+    <sheet name="Normal VEB" sheetId="6" r:id="rId5"/>
+    <sheet name="Normal_VEB_Performance" sheetId="7" r:id="rId6"/>
+    <sheet name="Not_int_Test" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="60">
   <si>
     <t>RecordNum</t>
   </si>
@@ -148,13 +150,7 @@
     <t xml:space="preserve">SUM </t>
   </si>
   <si>
-    <t>전체 맞춘 갯수</t>
-  </si>
-  <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
   </si>
   <si>
     <t>Mine</t>
@@ -163,16 +159,7 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>NeuralNet</t>
-  </si>
-  <si>
     <t>NN</t>
-  </si>
-  <si>
-    <t>SoftMax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden </t>
   </si>
   <si>
     <r>
@@ -189,12 +176,61 @@
       <t xml:space="preserve">에 class 2 가 없다. </t>
     </r>
   </si>
+  <si>
+    <t>DataRecordNum</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>VEB(G) as VEB</t>
+  </si>
+  <si>
+    <t>Normal(G) as VEB</t>
+  </si>
+  <si>
+    <t>Normal as Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal as VEB </t>
+  </si>
+  <si>
+    <t>VEB as Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEB as VEB </t>
+  </si>
+  <si>
+    <t>Specitifity</t>
+  </si>
+  <si>
+    <t>Ppr_Normal</t>
+  </si>
+  <si>
+    <t>Ppr_VEB</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,10 +262,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="굴림"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -260,182 +331,527 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="101" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="310">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -486,38 +902,110 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -568,39 +1056,112 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="101" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -931,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2524,17 +3085,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K56"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E106" activeCellId="26" sqref="E2 E6 E10 E14 E18 E22 E26 E30 E34 E38 E42 E46 E50 E54 E58 E62 E66 E70 E74 E78 E82 E86 E90 E94 E98 E102 E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2544,956 +3104,1700 @@
     <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="2" spans="1:11">
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="5">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2">
-        <v>58</v>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="G4" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1436</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1419</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1436</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1533</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1589</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5">
+        <v>106</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5">
+        <v>219</v>
+      </c>
+      <c r="D10" s="5">
+        <v>255</v>
+      </c>
+      <c r="E10" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1019</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5">
+        <v>108</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1101</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1098</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
+        <v>109</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1591</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1591</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5">
+        <v>113</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1141</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1141</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
+        <v>114</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1151</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1119</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>33</v>
+      </c>
+      <c r="E29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5">
+        <v>116</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="5">
+        <v>87</v>
+      </c>
+      <c r="D30" s="5">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>36</v>
+      </c>
+      <c r="E31" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1431</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1378</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="5">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5">
+        <v>118</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5">
+        <v>9</v>
+      </c>
+      <c r="E35" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1381</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1319</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>63</v>
+      </c>
+      <c r="E37" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5">
+        <v>119</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5">
+        <v>284</v>
+      </c>
+      <c r="D38" s="5">
+        <v>284</v>
+      </c>
+      <c r="E38" s="5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>993</v>
+      </c>
+      <c r="D40" s="5">
+        <v>993</v>
+      </c>
+      <c r="E40" s="5">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
+        <v>200</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="5">
+        <v>559</v>
+      </c>
+      <c r="D42" s="5">
+        <v>289</v>
+      </c>
+      <c r="E42" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5">
+        <v>276</v>
+      </c>
+      <c r="E43" s="5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1079</v>
+      </c>
+      <c r="D44" s="5">
+        <v>868</v>
+      </c>
+      <c r="E44" s="5">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="5">
+        <v>34</v>
+      </c>
+      <c r="D45" s="5">
+        <v>245</v>
+      </c>
+      <c r="E45" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5">
+        <v>201</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5">
+        <v>196</v>
+      </c>
+      <c r="D47" s="5">
+        <v>197</v>
+      </c>
+      <c r="E47" s="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <v>815</v>
+      </c>
+      <c r="D48" s="5">
+        <v>817</v>
+      </c>
+      <c r="E48" s="5">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5">
+        <v>202</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="5">
+        <v>14</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1247</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1069</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <v>179</v>
+      </c>
+      <c r="E53" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5">
+        <v>203</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="5">
+        <v>221</v>
+      </c>
+      <c r="D54" s="5">
+        <v>121</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5">
+        <v>79</v>
+      </c>
+      <c r="D55" s="5">
+        <v>179</v>
+      </c>
+      <c r="E55" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1621</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1630</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="5">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5">
+        <v>207</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1282</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1270</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="5">
+        <v>8</v>
+      </c>
+      <c r="D61" s="5">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="E61" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5">
+        <v>208</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="5">
+        <v>631</v>
+      </c>
+      <c r="D62" s="5">
+        <v>304</v>
+      </c>
+      <c r="E62" s="5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
+        <v>328</v>
+      </c>
+      <c r="E63" s="5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5">
+        <v>959</v>
+      </c>
+      <c r="D64" s="5">
+        <v>626</v>
+      </c>
+      <c r="E64" s="5">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="5">
+        <v>33</v>
+      </c>
+      <c r="D65" s="5">
+        <v>366</v>
+      </c>
+      <c r="E65" s="5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5">
+        <v>209</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1638</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1641</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="5">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5">
+        <v>210</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="5">
+        <v>110</v>
+      </c>
+      <c r="D70" s="5">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6">
-        <v>1436</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>1419</v>
-      </c>
-      <c r="D7">
+      <c r="E70" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="5">
+        <v>13</v>
+      </c>
+      <c r="D71" s="5">
+        <v>91</v>
+      </c>
+      <c r="E71" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1551</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1464</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5">
+        <v>89</v>
+      </c>
+      <c r="E73" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5">
+        <v>213</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="5">
+        <v>154</v>
+      </c>
+      <c r="D74" s="5">
+        <v>19</v>
+      </c>
+      <c r="E74" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5">
+        <v>136</v>
+      </c>
+      <c r="E75" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1678</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1520</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5">
+        <v>160</v>
+      </c>
+      <c r="E77" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="5">
+        <v>214</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="5">
+        <v>160</v>
+      </c>
+      <c r="D78" s="5">
+        <v>157</v>
+      </c>
+      <c r="E78" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="5">
+        <v>5</v>
+      </c>
+      <c r="D79" s="5">
+        <v>8</v>
+      </c>
+      <c r="E79" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1269</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1269</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="5">
+        <v>215</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="5">
+        <v>91</v>
+      </c>
+      <c r="D82" s="5">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2</v>
+      </c>
+      <c r="D83" s="5">
+        <v>82</v>
+      </c>
+      <c r="E83" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2054</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1975</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>79</v>
+      </c>
+      <c r="E85" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="5">
+        <v>219</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="5">
+        <v>31</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="5">
+        <v>7</v>
+      </c>
+      <c r="D87" s="5">
+        <v>38</v>
+      </c>
+      <c r="E87" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1288</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1263</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="5">
+        <v>4</v>
+      </c>
+      <c r="D89" s="5">
+        <v>29</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5">
+        <v>220</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1209</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1202</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>7</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5">
+        <v>221</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="5">
+        <v>286</v>
+      </c>
+      <c r="D94" s="5">
+        <v>280</v>
+      </c>
+      <c r="E94" s="5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5">
+        <v>8</v>
+      </c>
+      <c r="E95" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1279</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1285</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="5">
+        <v>6</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="5">
+        <v>223</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="5">
+        <v>139</v>
+      </c>
+      <c r="D98" s="5">
+        <v>71</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="5">
+        <v>213</v>
+      </c>
+      <c r="D99" s="5">
+        <v>281</v>
+      </c>
+      <c r="E99" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1281</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1108</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" s="5">
+        <v>4</v>
+      </c>
+      <c r="D101" s="5">
+        <v>177</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5">
+        <v>228</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="5">
+        <v>215</v>
+      </c>
+      <c r="D102" s="5">
+        <v>169</v>
+      </c>
+      <c r="E102" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="5">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>1436</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9">
-        <v>1533</v>
-      </c>
-      <c r="D9">
-        <v>85</v>
-      </c>
-      <c r="E9">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>1589</v>
-      </c>
-      <c r="D10">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
-        <v>1611</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>1020</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>219</v>
-      </c>
-      <c r="F12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13">
-        <v>1019</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>255</v>
-      </c>
-      <c r="F13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>1021</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>214</v>
-      </c>
-      <c r="F14">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>108</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>1101</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16">
-        <v>1098</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17">
-        <v>1099</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18">
-        <v>1141</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19">
-        <v>1141</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20">
-        <v>1136</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21">
-        <v>1151</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>29</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>1119</v>
-      </c>
-      <c r="D22">
-        <v>33</v>
-      </c>
-      <c r="E22">
+      <c r="D103" s="5">
+        <v>63</v>
+      </c>
+      <c r="E103" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1067</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1012</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>55</v>
+      </c>
+      <c r="E105" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="5">
+        <v>233</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="5">
+        <v>513</v>
+      </c>
+      <c r="D106" s="5">
+        <v>209</v>
+      </c>
+      <c r="E106" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
-        <v>1124</v>
-      </c>
-      <c r="D23">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24">
-        <v>1431</v>
-      </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>87</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25">
-        <v>1378</v>
-      </c>
-      <c r="D25">
-        <v>68</v>
-      </c>
-      <c r="E25">
-        <v>51</v>
-      </c>
-      <c r="F25">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26">
-        <v>1404</v>
-      </c>
-      <c r="D26">
-        <v>42</v>
-      </c>
-      <c r="E26">
-        <v>50</v>
-      </c>
-      <c r="F26">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>118</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>1381</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28">
-        <v>1319</v>
-      </c>
-      <c r="D28">
-        <v>63</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29">
-        <v>1337</v>
-      </c>
-      <c r="D29">
-        <v>45</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>119</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30">
-        <v>993</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>284</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31">
-        <v>993</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>284</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32">
-        <v>994</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>284</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>200</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <v>1079</v>
-      </c>
-      <c r="D33">
-        <v>34</v>
-      </c>
-      <c r="E33">
-        <v>559</v>
-      </c>
-      <c r="F33">
+      <c r="C107" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>868</v>
-      </c>
-      <c r="D34">
-        <v>245</v>
-      </c>
-      <c r="E34">
-        <v>289</v>
-      </c>
-      <c r="F34">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35">
-        <v>910</v>
-      </c>
-      <c r="D35">
-        <v>203</v>
-      </c>
-      <c r="E35">
-        <v>248</v>
-      </c>
-      <c r="F35">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>201</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36">
-        <v>815</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37">
-        <v>817</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38">
-        <v>817</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>202</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>1247</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>14</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40">
-        <v>1069</v>
-      </c>
-      <c r="D40">
-        <v>179</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>1236</v>
-      </c>
-      <c r="D41">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>203</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42">
-        <v>1621</v>
-      </c>
-      <c r="D42">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>221</v>
-      </c>
-      <c r="F42">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43">
-        <v>1630</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>121</v>
-      </c>
-      <c r="F43">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44">
-        <v>1631</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>207</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>1282</v>
-      </c>
-      <c r="D45">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>1270</v>
-      </c>
-      <c r="D46">
-        <v>20</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>1282</v>
-      </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>207</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48">
-        <v>959</v>
-      </c>
-      <c r="D48">
-        <v>33</v>
-      </c>
-      <c r="E48">
-        <v>631</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49">
-        <v>626</v>
-      </c>
-      <c r="D49">
-        <v>366</v>
-      </c>
-      <c r="E49">
+      <c r="D107" s="5">
+        <v>310</v>
+      </c>
+      <c r="E107" s="5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1443</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1140</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="5">
+        <v>1</v>
+      </c>
+      <c r="D109" s="5">
         <v>304</v>
       </c>
-      <c r="F49">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50">
-        <v>632</v>
-      </c>
-      <c r="D50">
-        <v>360</v>
-      </c>
-      <c r="E50">
-        <v>295</v>
-      </c>
-      <c r="F50">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>209</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51">
-        <v>1638</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52">
-        <v>1641</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="B53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53">
-        <v>1641</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54">
-        <v>1551</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>110</v>
-      </c>
-      <c r="F54">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="B56" t="s">
-        <v>46</v>
+      <c r="E109" s="5">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3509,6 +4813,3241 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30">
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7">
+        <v>100</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1436</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1419</v>
+      </c>
+      <c r="G3" s="9">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1436</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7">
+        <v>105</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1533</v>
+      </c>
+      <c r="C4" s="12">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>23</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1589</v>
+      </c>
+      <c r="G4" s="12">
+        <v>29</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>23</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1613</v>
+      </c>
+      <c r="K4" s="12">
+        <v>5</v>
+      </c>
+      <c r="L4" s="12">
+        <v>4</v>
+      </c>
+      <c r="M4" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7">
+        <v>106</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1020</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>60</v>
+      </c>
+      <c r="E5" s="13">
+        <v>219</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1019</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13">
+        <v>255</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1021</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>71</v>
+      </c>
+      <c r="M5" s="13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7">
+        <v>108</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1101</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1098</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12">
+        <v>10</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1101</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7">
+        <v>109</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1591</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>23</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1591</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>23</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1591</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
+        <v>113</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1141</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1141</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1141</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7">
+        <v>114</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1151</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1119</v>
+      </c>
+      <c r="G9" s="12">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12">
+        <v>26</v>
+      </c>
+      <c r="I9" s="13">
+        <v>4</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1124</v>
+      </c>
+      <c r="K9" s="12">
+        <v>28</v>
+      </c>
+      <c r="L9" s="12">
+        <v>26</v>
+      </c>
+      <c r="M9" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7">
+        <v>116</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1431</v>
+      </c>
+      <c r="C10" s="12">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>87</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1378</v>
+      </c>
+      <c r="G10" s="12">
+        <v>68</v>
+      </c>
+      <c r="H10" s="12">
+        <v>36</v>
+      </c>
+      <c r="I10" s="13">
+        <v>51</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1384</v>
+      </c>
+      <c r="K10" s="12">
+        <v>62</v>
+      </c>
+      <c r="L10" s="12">
+        <v>36</v>
+      </c>
+      <c r="M10" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7">
+        <v>118</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1381</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1319</v>
+      </c>
+      <c r="G11" s="12">
+        <v>63</v>
+      </c>
+      <c r="H11" s="12">
+        <v>9</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1336</v>
+      </c>
+      <c r="K11" s="12">
+        <v>46</v>
+      </c>
+      <c r="L11" s="12">
+        <v>9</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
+        <v>119</v>
+      </c>
+      <c r="B12" s="11">
+        <v>993</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>284</v>
+      </c>
+      <c r="F12" s="11">
+        <v>993</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>284</v>
+      </c>
+      <c r="J12" s="11">
+        <v>994</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7">
+        <v>200</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1079</v>
+      </c>
+      <c r="C13" s="12">
+        <v>34</v>
+      </c>
+      <c r="D13" s="12">
+        <v>6</v>
+      </c>
+      <c r="E13" s="13">
+        <v>559</v>
+      </c>
+      <c r="F13" s="11">
+        <v>868</v>
+      </c>
+      <c r="G13" s="12">
+        <v>245</v>
+      </c>
+      <c r="H13" s="12">
+        <v>276</v>
+      </c>
+      <c r="I13" s="13">
+        <v>289</v>
+      </c>
+      <c r="J13" s="11">
+        <v>883</v>
+      </c>
+      <c r="K13" s="12">
+        <v>230</v>
+      </c>
+      <c r="L13" s="12">
+        <v>295</v>
+      </c>
+      <c r="M13" s="13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7">
+        <v>201</v>
+      </c>
+      <c r="B14" s="11">
+        <v>815</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>196</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>817</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>197</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>817</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>197</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7">
+        <v>202</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1247</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>14</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1069</v>
+      </c>
+      <c r="G15" s="12">
+        <v>179</v>
+      </c>
+      <c r="H15" s="12">
+        <v>12</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1236</v>
+      </c>
+      <c r="K15" s="12">
+        <v>12</v>
+      </c>
+      <c r="L15" s="12">
+        <v>13</v>
+      </c>
+      <c r="M15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7">
+        <v>203</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1621</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12">
+        <v>79</v>
+      </c>
+      <c r="E16" s="13">
+        <v>221</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1630</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>179</v>
+      </c>
+      <c r="I16" s="13">
+        <v>121</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1631</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>300</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7">
+        <v>207</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1282</v>
+      </c>
+      <c r="C17" s="12">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1270</v>
+      </c>
+      <c r="G17" s="12">
+        <v>20</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1216</v>
+      </c>
+      <c r="K17" s="12">
+        <v>74</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7">
+        <v>208</v>
+      </c>
+      <c r="B18" s="11">
+        <v>959</v>
+      </c>
+      <c r="C18" s="12">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>631</v>
+      </c>
+      <c r="F18" s="11">
+        <v>626</v>
+      </c>
+      <c r="G18" s="12">
+        <v>366</v>
+      </c>
+      <c r="H18" s="12">
+        <v>328</v>
+      </c>
+      <c r="I18" s="13">
+        <v>304</v>
+      </c>
+      <c r="J18" s="11">
+        <v>631</v>
+      </c>
+      <c r="K18" s="12">
+        <v>361</v>
+      </c>
+      <c r="L18" s="12">
+        <v>334</v>
+      </c>
+      <c r="M18" s="13">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7">
+        <v>209</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1638</v>
+      </c>
+      <c r="C19" s="12">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1641</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1641</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7">
+        <v>210</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1551</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12">
+        <v>13</v>
+      </c>
+      <c r="E20" s="13">
+        <v>110</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1464</v>
+      </c>
+      <c r="G20" s="12">
+        <v>89</v>
+      </c>
+      <c r="H20" s="12">
+        <v>91</v>
+      </c>
+      <c r="I20" s="13">
+        <v>32</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1485</v>
+      </c>
+      <c r="K20" s="12">
+        <v>68</v>
+      </c>
+      <c r="L20" s="12">
+        <v>98</v>
+      </c>
+      <c r="M20" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7">
+        <v>213</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1678</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>154</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1520</v>
+      </c>
+      <c r="G21" s="12">
+        <v>160</v>
+      </c>
+      <c r="H21" s="12">
+        <v>136</v>
+      </c>
+      <c r="I21" s="13">
+        <v>19</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1532</v>
+      </c>
+      <c r="K21" s="12">
+        <v>148</v>
+      </c>
+      <c r="L21" s="12">
+        <v>136</v>
+      </c>
+      <c r="M21" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7">
+        <v>214</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1269</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5</v>
+      </c>
+      <c r="E22" s="13">
+        <v>160</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1269</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>8</v>
+      </c>
+      <c r="I22" s="13">
+        <v>157</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1270</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>48</v>
+      </c>
+      <c r="M22" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7">
+        <v>215</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2054</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13">
+        <v>91</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1975</v>
+      </c>
+      <c r="G23" s="12">
+        <v>79</v>
+      </c>
+      <c r="H23" s="12">
+        <v>82</v>
+      </c>
+      <c r="I23" s="13">
+        <v>11</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1982</v>
+      </c>
+      <c r="K23" s="12">
+        <v>72</v>
+      </c>
+      <c r="L23" s="12">
+        <v>84</v>
+      </c>
+      <c r="M23" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="7">
+        <v>219</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1288</v>
+      </c>
+      <c r="C24" s="12">
+        <v>4</v>
+      </c>
+      <c r="D24" s="12">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13">
+        <v>31</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1263</v>
+      </c>
+      <c r="G24" s="12">
+        <v>29</v>
+      </c>
+      <c r="H24" s="12">
+        <v>38</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1292</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>38</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="7">
+        <v>220</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1209</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1202</v>
+      </c>
+      <c r="G25" s="12">
+        <v>7</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1209</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="7">
+        <v>221</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1279</v>
+      </c>
+      <c r="C26" s="12">
+        <v>6</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13">
+        <v>286</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1285</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>8</v>
+      </c>
+      <c r="I26" s="13">
+        <v>280</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1285</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>10</v>
+      </c>
+      <c r="M26" s="13">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="7">
+        <v>223</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1281</v>
+      </c>
+      <c r="C27" s="12">
+        <v>4</v>
+      </c>
+      <c r="D27" s="12">
+        <v>213</v>
+      </c>
+      <c r="E27" s="13">
+        <v>139</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1108</v>
+      </c>
+      <c r="G27" s="12">
+        <v>177</v>
+      </c>
+      <c r="H27" s="12">
+        <v>281</v>
+      </c>
+      <c r="I27" s="13">
+        <v>71</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1285</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>352</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7">
+        <v>228</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1067</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>17</v>
+      </c>
+      <c r="E28" s="13">
+        <v>215</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1012</v>
+      </c>
+      <c r="G28" s="12">
+        <v>55</v>
+      </c>
+      <c r="H28" s="12">
+        <v>63</v>
+      </c>
+      <c r="I28" s="13">
+        <v>169</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1018</v>
+      </c>
+      <c r="K28" s="12">
+        <v>49</v>
+      </c>
+      <c r="L28" s="12">
+        <v>92</v>
+      </c>
+      <c r="M28" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="7">
+        <v>233</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1443</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>6</v>
+      </c>
+      <c r="E29" s="13">
+        <v>513</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1140</v>
+      </c>
+      <c r="G29" s="12">
+        <v>304</v>
+      </c>
+      <c r="H29" s="12">
+        <v>310</v>
+      </c>
+      <c r="I29" s="13">
+        <v>209</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1146</v>
+      </c>
+      <c r="K29" s="12">
+        <v>298</v>
+      </c>
+      <c r="L29" s="12">
+        <v>313</v>
+      </c>
+      <c r="M29" s="13">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="29" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30">
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="17">
+        <v>100</v>
+      </c>
+      <c r="B3" s="25">
+        <f>('Normal VEB'!B3+'Normal VEB'!E3)/('Normal VEB'!B3+'Normal VEB'!C3+'Normal VEB'!D3+'Normal VEB'!E3)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <f>'Normal VEB'!B3/('Normal VEB'!B3+'Normal VEB'!C3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="26">
+        <f>'Normal VEB'!B3/('Normal VEB'!B3+'Normal VEB'!D3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="25">
+        <f>('Normal VEB'!F3+'Normal VEB'!I3)/('Normal VEB'!F3+'Normal VEB'!G3+'Normal VEB'!H3+'Normal VEB'!I3)</f>
+        <v>0.98816155988857934</v>
+      </c>
+      <c r="H3" s="26">
+        <f>'Normal VEB'!F3/('Normal VEB'!F3+'Normal VEB'!G3)</f>
+        <v>0.98816155988857934</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="26">
+        <f>'Normal VEB'!F3/('Normal VEB'!F3+'Normal VEB'!H3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="27">
+        <f>'Normal VEB'!I3/('Normal VEB'!I3+'Normal VEB'!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <f>('Normal VEB'!J3+'Normal VEB'!M3)/('Normal VEB'!J3+'Normal VEB'!K3+'Normal VEB'!L3+'Normal VEB'!M3)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="18">
+        <f>'Normal VEB'!J3/('Normal VEB'!J3+'Normal VEB'!K3)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="18">
+        <f>'Normal VEB'!J3/('Normal VEB'!J3+'Normal VEB'!L3)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="20">
+        <v>105</v>
+      </c>
+      <c r="B4" s="28">
+        <f>('Normal VEB'!B4+'Normal VEB'!E4)/('Normal VEB'!B4+'Normal VEB'!C4+'Normal VEB'!D4+'Normal VEB'!E4)</f>
+        <v>0.94820231566118218</v>
+      </c>
+      <c r="C4" s="29">
+        <f>'Normal VEB'!B4/('Normal VEB'!B4+'Normal VEB'!C4)</f>
+        <v>0.94746600741656362</v>
+      </c>
+      <c r="D4" s="29">
+        <f>'Normal VEB'!E4/('Normal VEB'!E4+'Normal VEB'!D4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <f>'Normal VEB'!B4/('Normal VEB'!B4+'Normal VEB'!D4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <f>'Normal VEB'!E4/('Normal VEB'!E4+'Normal VEB'!C4)</f>
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="G4" s="28">
+        <f>('Normal VEB'!F4+'Normal VEB'!I4)/('Normal VEB'!F4+'Normal VEB'!G4+'Normal VEB'!H4+'Normal VEB'!I4)</f>
+        <v>0.98232784887263869</v>
+      </c>
+      <c r="H4" s="29">
+        <f>'Normal VEB'!F4/('Normal VEB'!F4+'Normal VEB'!G4)</f>
+        <v>0.98207663782447463</v>
+      </c>
+      <c r="I4" s="29">
+        <f>'Normal VEB'!I4/('Normal VEB'!I4+'Normal VEB'!H4)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="29">
+        <f>'Normal VEB'!F4/('Normal VEB'!F4+'Normal VEB'!H4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="30">
+        <f>'Normal VEB'!I4/('Normal VEB'!I4+'Normal VEB'!G4)</f>
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="L4" s="18">
+        <f>('Normal VEB'!J4+'Normal VEB'!M4)/('Normal VEB'!J4+'Normal VEB'!K4+'Normal VEB'!L4+'Normal VEB'!M4)</f>
+        <v>0.99451553930530168</v>
+      </c>
+      <c r="M4" s="18">
+        <f>'Normal VEB'!J4/('Normal VEB'!J4+'Normal VEB'!K4)</f>
+        <v>0.99690976514215079</v>
+      </c>
+      <c r="N4" s="18">
+        <f>'Normal VEB'!M4/('Normal VEB'!M4+'Normal VEB'!L4)</f>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="O4" s="18">
+        <f>'Normal VEB'!J4/('Normal VEB'!J4+'Normal VEB'!L4)</f>
+        <v>0.99752628324056891</v>
+      </c>
+      <c r="P4" s="18">
+        <f>'Normal VEB'!M4/('Normal VEB'!M4+'Normal VEB'!K4)</f>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="20">
+        <v>106</v>
+      </c>
+      <c r="B5" s="28">
+        <f>('Normal VEB'!B5+'Normal VEB'!E5)/('Normal VEB'!B5+'Normal VEB'!C5+'Normal VEB'!D5+'Normal VEB'!E5)</f>
+        <v>0.95307692307692304</v>
+      </c>
+      <c r="C5" s="29">
+        <f>'Normal VEB'!B5/('Normal VEB'!B5+'Normal VEB'!C5)</f>
+        <v>0.99902056807051909</v>
+      </c>
+      <c r="D5" s="29">
+        <f>'Normal VEB'!E5/('Normal VEB'!E5+'Normal VEB'!D5)</f>
+        <v>0.78494623655913975</v>
+      </c>
+      <c r="E5" s="29">
+        <f>'Normal VEB'!B5/('Normal VEB'!B5+'Normal VEB'!D5)</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="F5" s="30">
+        <f>'Normal VEB'!E5/('Normal VEB'!E5+'Normal VEB'!C5)</f>
+        <v>0.99545454545454548</v>
+      </c>
+      <c r="G5" s="28">
+        <f>('Normal VEB'!F5+'Normal VEB'!I5)/('Normal VEB'!F5+'Normal VEB'!G5+'Normal VEB'!H5+'Normal VEB'!I5)</f>
+        <v>0.98</v>
+      </c>
+      <c r="H5" s="29">
+        <f>'Normal VEB'!F5/('Normal VEB'!F5+'Normal VEB'!G5)</f>
+        <v>0.99804113614103818</v>
+      </c>
+      <c r="I5" s="29">
+        <f>'Normal VEB'!I5/('Normal VEB'!I5+'Normal VEB'!H5)</f>
+        <v>0.91397849462365588</v>
+      </c>
+      <c r="J5" s="29">
+        <f>'Normal VEB'!F5/('Normal VEB'!F5+'Normal VEB'!H5)</f>
+        <v>0.9769894534995206</v>
+      </c>
+      <c r="K5" s="30">
+        <f>'Normal VEB'!I5/('Normal VEB'!I5+'Normal VEB'!G5)</f>
+        <v>0.99221789883268485</v>
+      </c>
+      <c r="L5" s="18">
+        <f>('Normal VEB'!J5+'Normal VEB'!M5)/('Normal VEB'!J5+'Normal VEB'!K5+'Normal VEB'!L5+'Normal VEB'!M5)</f>
+        <v>0.94538461538461538</v>
+      </c>
+      <c r="M5" s="18">
+        <f>'Normal VEB'!J5/('Normal VEB'!J5+'Normal VEB'!K5)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="18">
+        <f>'Normal VEB'!M5/('Normal VEB'!M5+'Normal VEB'!L5)</f>
+        <v>0.74551971326164879</v>
+      </c>
+      <c r="O5" s="18">
+        <f>'Normal VEB'!J5/('Normal VEB'!J5+'Normal VEB'!L5)</f>
+        <v>0.93498168498168499</v>
+      </c>
+      <c r="P5" s="18">
+        <f>'Normal VEB'!M5/('Normal VEB'!M5+'Normal VEB'!K5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="20">
+        <v>108</v>
+      </c>
+      <c r="B6" s="28">
+        <f>('Normal VEB'!B6+'Normal VEB'!E6)/('Normal VEB'!B6+'Normal VEB'!C6+'Normal VEB'!D6+'Normal VEB'!E6)</f>
+        <v>0.99189918991899195</v>
+      </c>
+      <c r="C6" s="29">
+        <f>'Normal VEB'!B6/('Normal VEB'!B6+'Normal VEB'!C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <f>'Normal VEB'!E6/('Normal VEB'!E6+'Normal VEB'!D6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="29">
+        <f>'Normal VEB'!B6/('Normal VEB'!B6+'Normal VEB'!D6)</f>
+        <v>0.99189189189189186</v>
+      </c>
+      <c r="F6" s="30">
+        <f>'Normal VEB'!E6/('Normal VEB'!E6+'Normal VEB'!C6)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="28">
+        <f>('Normal VEB'!F6+'Normal VEB'!I6)/('Normal VEB'!F6+'Normal VEB'!G6+'Normal VEB'!H6+'Normal VEB'!I6)</f>
+        <v>0.98829882988298834</v>
+      </c>
+      <c r="H6" s="29">
+        <f>'Normal VEB'!F6/('Normal VEB'!F6+'Normal VEB'!G6)</f>
+        <v>0.99727520435967298</v>
+      </c>
+      <c r="I6" s="29">
+        <f>'Normal VEB'!I6/('Normal VEB'!I6+'Normal VEB'!H6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <f>'Normal VEB'!F6/('Normal VEB'!F6+'Normal VEB'!H6)</f>
+        <v>0.99097472924187724</v>
+      </c>
+      <c r="K6" s="30">
+        <f>'Normal VEB'!I6/('Normal VEB'!I6+'Normal VEB'!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <f>('Normal VEB'!J6+'Normal VEB'!M6)/('Normal VEB'!J6+'Normal VEB'!K6+'Normal VEB'!L6+'Normal VEB'!M6)</f>
+        <v>0.99099909990999102</v>
+      </c>
+      <c r="M6" s="18">
+        <f>'Normal VEB'!J6/('Normal VEB'!J6+'Normal VEB'!K6)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="18">
+        <f>'Normal VEB'!M6/('Normal VEB'!M6+'Normal VEB'!L6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
+        <f>'Normal VEB'!J6/('Normal VEB'!J6+'Normal VEB'!L6)</f>
+        <v>0.99099909990999102</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="20">
+        <v>109</v>
+      </c>
+      <c r="B7" s="28">
+        <f>('Normal VEB'!B7+'Normal VEB'!E7)/('Normal VEB'!B7+'Normal VEB'!C7+'Normal VEB'!D7+'Normal VEB'!E7)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="29">
+        <f>'Normal VEB'!B7/('Normal VEB'!B7+'Normal VEB'!C7)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <f>'Normal VEB'!E7/('Normal VEB'!E7+'Normal VEB'!D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <f>'Normal VEB'!B7/('Normal VEB'!B7+'Normal VEB'!D7)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <f>'Normal VEB'!E7/('Normal VEB'!E7+'Normal VEB'!C7)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
+        <f>('Normal VEB'!F7+'Normal VEB'!I7)/('Normal VEB'!F7+'Normal VEB'!G7+'Normal VEB'!H7+'Normal VEB'!I7)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <f>'Normal VEB'!F7/('Normal VEB'!F7+'Normal VEB'!G7)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="29">
+        <f>'Normal VEB'!I7/('Normal VEB'!I7+'Normal VEB'!H7)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <f>'Normal VEB'!F7/('Normal VEB'!F7+'Normal VEB'!H7)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="30">
+        <f>'Normal VEB'!I7/('Normal VEB'!I7+'Normal VEB'!G7)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <f>('Normal VEB'!J7+'Normal VEB'!M7)/('Normal VEB'!J7+'Normal VEB'!K7+'Normal VEB'!L7+'Normal VEB'!M7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="18">
+        <f>'Normal VEB'!J7/('Normal VEB'!J7+'Normal VEB'!K7)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="18">
+        <f>'Normal VEB'!M7/('Normal VEB'!M7+'Normal VEB'!L7)</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="18">
+        <f>'Normal VEB'!J7/('Normal VEB'!J7+'Normal VEB'!L7)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="18">
+        <f>'Normal VEB'!M7/('Normal VEB'!M7+'Normal VEB'!K7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="20">
+        <v>113</v>
+      </c>
+      <c r="B8" s="28">
+        <f>('Normal VEB'!B8+'Normal VEB'!E8)/('Normal VEB'!B8+'Normal VEB'!C8+'Normal VEB'!D8+'Normal VEB'!E8)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
+        <f>'Normal VEB'!B8/('Normal VEB'!B8+'Normal VEB'!C8)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="29">
+        <f>'Normal VEB'!B8/('Normal VEB'!B8+'Normal VEB'!D8)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="28">
+        <f>('Normal VEB'!F8+'Normal VEB'!I8)/('Normal VEB'!F8+'Normal VEB'!G8+'Normal VEB'!H8+'Normal VEB'!I8)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="29">
+        <f>'Normal VEB'!F8/('Normal VEB'!F8+'Normal VEB'!G8)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="29">
+        <f>'Normal VEB'!F8/('Normal VEB'!F8+'Normal VEB'!H8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="18">
+        <f>('Normal VEB'!J8+'Normal VEB'!M8)/('Normal VEB'!J8+'Normal VEB'!K8+'Normal VEB'!L8+'Normal VEB'!M8)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="18">
+        <f>'Normal VEB'!J8/('Normal VEB'!J8+'Normal VEB'!K8)</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="18">
+        <f>'Normal VEB'!J8/('Normal VEB'!J8+'Normal VEB'!L8)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="20">
+        <v>114</v>
+      </c>
+      <c r="B9" s="28">
+        <f>('Normal VEB'!B9+'Normal VEB'!E9)/('Normal VEB'!B9+'Normal VEB'!C9+'Normal VEB'!D9+'Normal VEB'!E9)</f>
+        <v>0.99830795262267347</v>
+      </c>
+      <c r="C9" s="29">
+        <f>'Normal VEB'!B9/('Normal VEB'!B9+'Normal VEB'!C9)</f>
+        <v>0.99913194444444442</v>
+      </c>
+      <c r="D9" s="29">
+        <f>'Normal VEB'!E9/('Normal VEB'!E9+'Normal VEB'!D9)</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="E9" s="29">
+        <f>'Normal VEB'!B9/('Normal VEB'!B9+'Normal VEB'!D9)</f>
+        <v>0.99913194444444442</v>
+      </c>
+      <c r="F9" s="30">
+        <f>'Normal VEB'!E9/('Normal VEB'!E9+'Normal VEB'!C9)</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="G9" s="28">
+        <f>('Normal VEB'!F9+'Normal VEB'!I9)/('Normal VEB'!F9+'Normal VEB'!G9+'Normal VEB'!H9+'Normal VEB'!I9)</f>
+        <v>0.95008460236886638</v>
+      </c>
+      <c r="H9" s="29">
+        <f>'Normal VEB'!F9/('Normal VEB'!F9+'Normal VEB'!G9)</f>
+        <v>0.97135416666666663</v>
+      </c>
+      <c r="I9" s="29">
+        <f>'Normal VEB'!I9/('Normal VEB'!I9+'Normal VEB'!H9)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J9" s="29">
+        <f>'Normal VEB'!F9/('Normal VEB'!F9+'Normal VEB'!H9)</f>
+        <v>0.97729257641921397</v>
+      </c>
+      <c r="K9" s="30">
+        <f>'Normal VEB'!I9/('Normal VEB'!I9+'Normal VEB'!G9)</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="L9" s="18">
+        <f>('Normal VEB'!J9+'Normal VEB'!M9)/('Normal VEB'!J9+'Normal VEB'!K9+'Normal VEB'!L9+'Normal VEB'!M9)</f>
+        <v>0.95431472081218272</v>
+      </c>
+      <c r="M9" s="18">
+        <f>'Normal VEB'!J9/('Normal VEB'!J9+'Normal VEB'!K9)</f>
+        <v>0.97569444444444442</v>
+      </c>
+      <c r="N9" s="18">
+        <f>'Normal VEB'!M9/('Normal VEB'!M9+'Normal VEB'!L9)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="O9" s="18">
+        <f>'Normal VEB'!J9/('Normal VEB'!J9+'Normal VEB'!L9)</f>
+        <v>0.97739130434782606</v>
+      </c>
+      <c r="P9" s="18">
+        <f>'Normal VEB'!M9/('Normal VEB'!M9+'Normal VEB'!K9)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="20">
+        <v>116</v>
+      </c>
+      <c r="B10" s="28">
+        <f>('Normal VEB'!B10+'Normal VEB'!E10)/('Normal VEB'!B10+'Normal VEB'!C10+'Normal VEB'!D10+'Normal VEB'!E10)</f>
+        <v>0.99021526418786687</v>
+      </c>
+      <c r="C10" s="29">
+        <f>'Normal VEB'!B10/('Normal VEB'!B10+'Normal VEB'!C10)</f>
+        <v>0.98962655601659755</v>
+      </c>
+      <c r="D10" s="29">
+        <f>'Normal VEB'!E10/('Normal VEB'!E10+'Normal VEB'!D10)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <f>'Normal VEB'!B10/('Normal VEB'!B10+'Normal VEB'!D10)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <f>'Normal VEB'!E10/('Normal VEB'!E10+'Normal VEB'!C10)</f>
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="G10" s="28">
+        <f>('Normal VEB'!F10+'Normal VEB'!I10)/('Normal VEB'!F10+'Normal VEB'!G10+'Normal VEB'!H10+'Normal VEB'!I10)</f>
+        <v>0.93215916503587737</v>
+      </c>
+      <c r="H10" s="29">
+        <f>'Normal VEB'!F10/('Normal VEB'!F10+'Normal VEB'!G10)</f>
+        <v>0.95297372060857533</v>
+      </c>
+      <c r="I10" s="29">
+        <f>'Normal VEB'!I10/('Normal VEB'!I10+'Normal VEB'!H10)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="J10" s="29">
+        <f>'Normal VEB'!F10/('Normal VEB'!F10+'Normal VEB'!H10)</f>
+        <v>0.97454031117397455</v>
+      </c>
+      <c r="K10" s="30">
+        <f>'Normal VEB'!I10/('Normal VEB'!I10+'Normal VEB'!G10)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L10" s="18">
+        <f>('Normal VEB'!J10+'Normal VEB'!M10)/('Normal VEB'!J10+'Normal VEB'!K10+'Normal VEB'!L10+'Normal VEB'!M10)</f>
+        <v>0.9360730593607306</v>
+      </c>
+      <c r="M10" s="18">
+        <f>'Normal VEB'!J10/('Normal VEB'!J10+'Normal VEB'!K10)</f>
+        <v>0.95712309820193642</v>
+      </c>
+      <c r="N10" s="18">
+        <f>'Normal VEB'!M10/('Normal VEB'!M10+'Normal VEB'!L10)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="O10" s="18">
+        <f>'Normal VEB'!J10/('Normal VEB'!J10+'Normal VEB'!L10)</f>
+        <v>0.9746478873239437</v>
+      </c>
+      <c r="P10" s="18">
+        <f>'Normal VEB'!M10/('Normal VEB'!M10+'Normal VEB'!K10)</f>
+        <v>0.45132743362831856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="20">
+        <v>118</v>
+      </c>
+      <c r="B11" s="28">
+        <f>('Normal VEB'!B11+'Normal VEB'!E11)/('Normal VEB'!B11+'Normal VEB'!C11+'Normal VEB'!D11+'Normal VEB'!E11)</f>
+        <v>0.99424874191229329</v>
+      </c>
+      <c r="C11" s="29">
+        <f>'Normal VEB'!B11/('Normal VEB'!B11+'Normal VEB'!C11)</f>
+        <v>0.9992764109985528</v>
+      </c>
+      <c r="D11" s="29">
+        <f>'Normal VEB'!E11/('Normal VEB'!E11+'Normal VEB'!D11)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E11" s="29">
+        <f>'Normal VEB'!B11/('Normal VEB'!B11+'Normal VEB'!D11)</f>
+        <v>0.99495677233429392</v>
+      </c>
+      <c r="F11" s="30">
+        <f>'Normal VEB'!E11/('Normal VEB'!E11+'Normal VEB'!C11)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" s="28">
+        <f>('Normal VEB'!F11+'Normal VEB'!I11)/('Normal VEB'!F11+'Normal VEB'!G11+'Normal VEB'!H11+'Normal VEB'!I11)</f>
+        <v>0.94823867721063981</v>
+      </c>
+      <c r="H11" s="29">
+        <f>'Normal VEB'!F11/('Normal VEB'!F11+'Normal VEB'!G11)</f>
+        <v>0.95441389290882783</v>
+      </c>
+      <c r="I11" s="29">
+        <f>'Normal VEB'!I11/('Normal VEB'!I11+'Normal VEB'!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <f>'Normal VEB'!F11/('Normal VEB'!F11+'Normal VEB'!H11)</f>
+        <v>0.99322289156626509</v>
+      </c>
+      <c r="K11" s="30">
+        <f>'Normal VEB'!I11/('Normal VEB'!I11+'Normal VEB'!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
+        <f>('Normal VEB'!J11+'Normal VEB'!M11)/('Normal VEB'!J11+'Normal VEB'!K11+'Normal VEB'!L11+'Normal VEB'!M11)</f>
+        <v>0.96046010064701659</v>
+      </c>
+      <c r="M11" s="18">
+        <f>'Normal VEB'!J11/('Normal VEB'!J11+'Normal VEB'!K11)</f>
+        <v>0.96671490593342979</v>
+      </c>
+      <c r="N11" s="18">
+        <f>'Normal VEB'!M11/('Normal VEB'!M11+'Normal VEB'!L11)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <f>'Normal VEB'!J11/('Normal VEB'!J11+'Normal VEB'!L11)</f>
+        <v>0.99330855018587361</v>
+      </c>
+      <c r="P11" s="18">
+        <f>'Normal VEB'!M11/('Normal VEB'!M11+'Normal VEB'!K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="20">
+        <v>119</v>
+      </c>
+      <c r="B12" s="28">
+        <f>('Normal VEB'!B12+'Normal VEB'!E12)/('Normal VEB'!B12+'Normal VEB'!C12+'Normal VEB'!D12+'Normal VEB'!E12)</f>
+        <v>0.99921752738654146</v>
+      </c>
+      <c r="C12" s="29">
+        <f>'Normal VEB'!B12/('Normal VEB'!B12+'Normal VEB'!C12)</f>
+        <v>0.99899396378269623</v>
+      </c>
+      <c r="D12" s="29">
+        <f>'Normal VEB'!E12/('Normal VEB'!E12+'Normal VEB'!D12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="29">
+        <f>'Normal VEB'!B12/('Normal VEB'!B12+'Normal VEB'!D12)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <f>'Normal VEB'!E12/('Normal VEB'!E12+'Normal VEB'!C12)</f>
+        <v>0.99649122807017543</v>
+      </c>
+      <c r="G12" s="28">
+        <f>('Normal VEB'!F12+'Normal VEB'!I12)/('Normal VEB'!F12+'Normal VEB'!G12+'Normal VEB'!H12+'Normal VEB'!I12)</f>
+        <v>0.99921752738654146</v>
+      </c>
+      <c r="H12" s="29">
+        <f>'Normal VEB'!F12/('Normal VEB'!F12+'Normal VEB'!G12)</f>
+        <v>0.99899396378269623</v>
+      </c>
+      <c r="I12" s="29">
+        <f>'Normal VEB'!I12/('Normal VEB'!I12+'Normal VEB'!H12)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="29">
+        <f>'Normal VEB'!F12/('Normal VEB'!F12+'Normal VEB'!H12)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="30">
+        <f>'Normal VEB'!I12/('Normal VEB'!I12+'Normal VEB'!G12)</f>
+        <v>0.99649122807017543</v>
+      </c>
+      <c r="L12" s="18">
+        <f>('Normal VEB'!J12+'Normal VEB'!M12)/('Normal VEB'!J12+'Normal VEB'!K12+'Normal VEB'!L12+'Normal VEB'!M12)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="18">
+        <f>'Normal VEB'!J12/('Normal VEB'!J12+'Normal VEB'!K12)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="18">
+        <f>'Normal VEB'!M12/('Normal VEB'!M12+'Normal VEB'!L12)</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="18">
+        <f>'Normal VEB'!J12/('Normal VEB'!J12+'Normal VEB'!L12)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="18">
+        <f>'Normal VEB'!M12/('Normal VEB'!M12+'Normal VEB'!K12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="20">
+        <v>200</v>
+      </c>
+      <c r="B13" s="28">
+        <f>('Normal VEB'!B13+'Normal VEB'!E13)/('Normal VEB'!B13+'Normal VEB'!C13+'Normal VEB'!D13+'Normal VEB'!E13)</f>
+        <v>0.9761620977353993</v>
+      </c>
+      <c r="C13" s="29">
+        <f>'Normal VEB'!B13/('Normal VEB'!B13+'Normal VEB'!C13)</f>
+        <v>0.96945193171608268</v>
+      </c>
+      <c r="D13" s="29">
+        <f>'Normal VEB'!E13/('Normal VEB'!E13+'Normal VEB'!D13)</f>
+        <v>0.98938053097345136</v>
+      </c>
+      <c r="E13" s="29">
+        <f>'Normal VEB'!B13/('Normal VEB'!B13+'Normal VEB'!D13)</f>
+        <v>0.99447004608294931</v>
+      </c>
+      <c r="F13" s="30">
+        <f>'Normal VEB'!E13/('Normal VEB'!E13+'Normal VEB'!C13)</f>
+        <v>0.94266441821247893</v>
+      </c>
+      <c r="G13" s="28">
+        <f>('Normal VEB'!F13+'Normal VEB'!I13)/('Normal VEB'!F13+'Normal VEB'!G13+'Normal VEB'!H13+'Normal VEB'!I13)</f>
+        <v>0.68951132300357565</v>
+      </c>
+      <c r="H13" s="29">
+        <f>'Normal VEB'!F13/('Normal VEB'!F13+'Normal VEB'!G13)</f>
+        <v>0.77987421383647804</v>
+      </c>
+      <c r="I13" s="29">
+        <f>'Normal VEB'!I13/('Normal VEB'!I13+'Normal VEB'!H13)</f>
+        <v>0.51150442477876101</v>
+      </c>
+      <c r="J13" s="29">
+        <f>'Normal VEB'!F13/('Normal VEB'!F13+'Normal VEB'!H13)</f>
+        <v>0.75874125874125875</v>
+      </c>
+      <c r="K13" s="30">
+        <f>'Normal VEB'!I13/('Normal VEB'!I13+'Normal VEB'!G13)</f>
+        <v>0.54119850187265917</v>
+      </c>
+      <c r="L13" s="18">
+        <f>('Normal VEB'!J13+'Normal VEB'!M13)/('Normal VEB'!J13+'Normal VEB'!K13+'Normal VEB'!L13+'Normal VEB'!M13)</f>
+        <v>0.68712753277711558</v>
+      </c>
+      <c r="M13" s="18">
+        <f>'Normal VEB'!J13/('Normal VEB'!J13+'Normal VEB'!K13)</f>
+        <v>0.793351302785265</v>
+      </c>
+      <c r="N13" s="18">
+        <f>'Normal VEB'!M13/('Normal VEB'!M13+'Normal VEB'!L13)</f>
+        <v>0.47787610619469029</v>
+      </c>
+      <c r="O13" s="18">
+        <f>'Normal VEB'!J13/('Normal VEB'!J13+'Normal VEB'!L13)</f>
+        <v>0.74957555178268254</v>
+      </c>
+      <c r="P13" s="18">
+        <f>'Normal VEB'!M13/('Normal VEB'!M13+'Normal VEB'!K13)</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="20">
+        <v>201</v>
+      </c>
+      <c r="B14" s="28">
+        <f>('Normal VEB'!B14+'Normal VEB'!E14)/('Normal VEB'!B14+'Normal VEB'!C14+'Normal VEB'!D14+'Normal VEB'!E14)</f>
+        <v>0.80473372781065089</v>
+      </c>
+      <c r="C14" s="29">
+        <f>'Normal VEB'!B14/('Normal VEB'!B14+'Normal VEB'!C14)</f>
+        <v>0.99755201958384332</v>
+      </c>
+      <c r="D14" s="29">
+        <f>'Normal VEB'!E14/('Normal VEB'!E14+'Normal VEB'!D14)</f>
+        <v>5.076142131979695E-3</v>
+      </c>
+      <c r="E14" s="29">
+        <f>'Normal VEB'!B14/('Normal VEB'!B14+'Normal VEB'!D14)</f>
+        <v>0.80613254203758655</v>
+      </c>
+      <c r="F14" s="30">
+        <f>'Normal VEB'!E14/('Normal VEB'!E14+'Normal VEB'!C14)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G14" s="28">
+        <f>('Normal VEB'!F14+'Normal VEB'!I14)/('Normal VEB'!F14+'Normal VEB'!G14+'Normal VEB'!H14+'Normal VEB'!I14)</f>
+        <v>0.8057199211045365</v>
+      </c>
+      <c r="H14" s="29">
+        <f>'Normal VEB'!F14/('Normal VEB'!F14+'Normal VEB'!G14)</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <f>'Normal VEB'!I14/('Normal VEB'!I14+'Normal VEB'!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <f>'Normal VEB'!F14/('Normal VEB'!F14+'Normal VEB'!H14)</f>
+        <v>0.8057199211045365</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="18">
+        <f>('Normal VEB'!J14+'Normal VEB'!M14)/('Normal VEB'!J14+'Normal VEB'!K14+'Normal VEB'!L14+'Normal VEB'!M14)</f>
+        <v>0.8057199211045365</v>
+      </c>
+      <c r="M14" s="18">
+        <f>'Normal VEB'!J14/('Normal VEB'!J14+'Normal VEB'!K14)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="18">
+        <f>'Normal VEB'!M14/('Normal VEB'!M14+'Normal VEB'!L14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
+        <f>'Normal VEB'!J14/('Normal VEB'!J14+'Normal VEB'!L14)</f>
+        <v>0.8057199211045365</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="20">
+        <v>202</v>
+      </c>
+      <c r="B15" s="28">
+        <f>('Normal VEB'!B15+'Normal VEB'!E15)/('Normal VEB'!B15+'Normal VEB'!C15+'Normal VEB'!D15+'Normal VEB'!E15)</f>
+        <v>0.99920760697305866</v>
+      </c>
+      <c r="C15" s="29">
+        <f>'Normal VEB'!B15/('Normal VEB'!B15+'Normal VEB'!C15)</f>
+        <v>0.99919871794871795</v>
+      </c>
+      <c r="D15" s="29">
+        <f>'Normal VEB'!E15/('Normal VEB'!E15+'Normal VEB'!D15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <f>'Normal VEB'!B15/('Normal VEB'!B15+'Normal VEB'!D15)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="30">
+        <f>'Normal VEB'!E15/('Normal VEB'!E15+'Normal VEB'!C15)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G15" s="28">
+        <f>('Normal VEB'!F15+'Normal VEB'!I15)/('Normal VEB'!F15+'Normal VEB'!G15+'Normal VEB'!H15+'Normal VEB'!I15)</f>
+        <v>0.84865293185419965</v>
+      </c>
+      <c r="H15" s="29">
+        <f>'Normal VEB'!F15/('Normal VEB'!F15+'Normal VEB'!G15)</f>
+        <v>0.85657051282051277</v>
+      </c>
+      <c r="I15" s="29">
+        <f>'Normal VEB'!I15/('Normal VEB'!I15+'Normal VEB'!H15)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J15" s="29">
+        <f>'Normal VEB'!F15/('Normal VEB'!F15+'Normal VEB'!H15)</f>
+        <v>0.98889916743755779</v>
+      </c>
+      <c r="K15" s="30">
+        <f>'Normal VEB'!I15/('Normal VEB'!I15+'Normal VEB'!G15)</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+      <c r="L15" s="18">
+        <f>('Normal VEB'!J15+'Normal VEB'!M15)/('Normal VEB'!J15+'Normal VEB'!K15+'Normal VEB'!L15+'Normal VEB'!M15)</f>
+        <v>0.98019017432646594</v>
+      </c>
+      <c r="M15" s="18">
+        <f>'Normal VEB'!J15/('Normal VEB'!J15+'Normal VEB'!K15)</f>
+        <v>0.99038461538461542</v>
+      </c>
+      <c r="N15" s="18">
+        <f>'Normal VEB'!M15/('Normal VEB'!M15+'Normal VEB'!L15)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="O15" s="18">
+        <f>'Normal VEB'!J15/('Normal VEB'!J15+'Normal VEB'!L15)</f>
+        <v>0.98959167333867093</v>
+      </c>
+      <c r="P15" s="18">
+        <f>'Normal VEB'!M15/('Normal VEB'!M15+'Normal VEB'!K15)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="20">
+        <v>203</v>
+      </c>
+      <c r="B16" s="28">
+        <f>('Normal VEB'!B16+'Normal VEB'!E16)/('Normal VEB'!B16+'Normal VEB'!C16+'Normal VEB'!D16+'Normal VEB'!E16)</f>
+        <v>0.95390989124805803</v>
+      </c>
+      <c r="C16" s="29">
+        <f>'Normal VEB'!B16/('Normal VEB'!B16+'Normal VEB'!C16)</f>
+        <v>0.99386879215205393</v>
+      </c>
+      <c r="D16" s="29">
+        <f>'Normal VEB'!E16/('Normal VEB'!E16+'Normal VEB'!D16)</f>
+        <v>0.73666666666666669</v>
+      </c>
+      <c r="E16" s="29">
+        <f>'Normal VEB'!B16/('Normal VEB'!B16+'Normal VEB'!D16)</f>
+        <v>0.95352941176470585</v>
+      </c>
+      <c r="F16" s="30">
+        <f>'Normal VEB'!E16/('Normal VEB'!E16+'Normal VEB'!C16)</f>
+        <v>0.95670995670995673</v>
+      </c>
+      <c r="G16" s="28">
+        <f>('Normal VEB'!F16+'Normal VEB'!I16)/('Normal VEB'!F16+'Normal VEB'!G16+'Normal VEB'!H16+'Normal VEB'!I16)</f>
+        <v>0.90678404971517346</v>
+      </c>
+      <c r="H16" s="29">
+        <f>'Normal VEB'!F16/('Normal VEB'!F16+'Normal VEB'!G16)</f>
+        <v>0.99938687921520541</v>
+      </c>
+      <c r="I16" s="29">
+        <f>'Normal VEB'!I16/('Normal VEB'!I16+'Normal VEB'!H16)</f>
+        <v>0.40333333333333332</v>
+      </c>
+      <c r="J16" s="29">
+        <f>'Normal VEB'!F16/('Normal VEB'!F16+'Normal VEB'!H16)</f>
+        <v>0.90105030403537867</v>
+      </c>
+      <c r="K16" s="30">
+        <f>'Normal VEB'!I16/('Normal VEB'!I16+'Normal VEB'!G16)</f>
+        <v>0.99180327868852458</v>
+      </c>
+      <c r="L16" s="18">
+        <f>('Normal VEB'!J16+'Normal VEB'!M16)/('Normal VEB'!J16+'Normal VEB'!K16+'Normal VEB'!L16+'Normal VEB'!M16)</f>
+        <v>0.84464008285862247</v>
+      </c>
+      <c r="M16" s="18">
+        <f>'Normal VEB'!J16/('Normal VEB'!J16+'Normal VEB'!K16)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="18">
+        <f>'Normal VEB'!M16/('Normal VEB'!M16+'Normal VEB'!L16)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="18">
+        <f>'Normal VEB'!J16/('Normal VEB'!J16+'Normal VEB'!L16)</f>
+        <v>0.84464008285862247</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="20">
+        <v>207</v>
+      </c>
+      <c r="B17" s="28">
+        <f>('Normal VEB'!B17+'Normal VEB'!E17)/('Normal VEB'!B17+'Normal VEB'!C17+'Normal VEB'!D17+'Normal VEB'!E17)</f>
+        <v>0.99379844961240305</v>
+      </c>
+      <c r="C17" s="29">
+        <f>'Normal VEB'!B17/('Normal VEB'!B17+'Normal VEB'!C17)</f>
+        <v>0.99379844961240305</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="29">
+        <f>'Normal VEB'!B17/('Normal VEB'!B17+'Normal VEB'!D17)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="30">
+        <f>'Normal VEB'!E17/('Normal VEB'!E17+'Normal VEB'!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <f>('Normal VEB'!F17+'Normal VEB'!I17)/('Normal VEB'!F17+'Normal VEB'!G17+'Normal VEB'!H17+'Normal VEB'!I17)</f>
+        <v>0.98449612403100772</v>
+      </c>
+      <c r="H17" s="29">
+        <f>'Normal VEB'!F17/('Normal VEB'!F17+'Normal VEB'!G17)</f>
+        <v>0.98449612403100772</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="29">
+        <f>'Normal VEB'!F17/('Normal VEB'!F17+'Normal VEB'!H17)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="30">
+        <f>'Normal VEB'!I17/('Normal VEB'!I17+'Normal VEB'!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
+        <f>('Normal VEB'!J17+'Normal VEB'!M17)/('Normal VEB'!J17+'Normal VEB'!K17+'Normal VEB'!L17+'Normal VEB'!M17)</f>
+        <v>0.94263565891472867</v>
+      </c>
+      <c r="M17" s="18">
+        <f>'Normal VEB'!J17/('Normal VEB'!J17+'Normal VEB'!K17)</f>
+        <v>0.94263565891472867</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="18">
+        <f>'Normal VEB'!J17/('Normal VEB'!J17+'Normal VEB'!L17)</f>
+        <v>1</v>
+      </c>
+      <c r="P17" s="18">
+        <f>'Normal VEB'!M17/('Normal VEB'!M17+'Normal VEB'!K17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="20">
+        <v>208</v>
+      </c>
+      <c r="B18" s="28">
+        <f>('Normal VEB'!B18+'Normal VEB'!E18)/('Normal VEB'!B18+'Normal VEB'!C18+'Normal VEB'!D18+'Normal VEB'!E18)</f>
+        <v>0.97906403940886699</v>
+      </c>
+      <c r="C18" s="29">
+        <f>'Normal VEB'!B18/('Normal VEB'!B18+'Normal VEB'!C18)</f>
+        <v>0.96673387096774188</v>
+      </c>
+      <c r="D18" s="29">
+        <f>'Normal VEB'!E18/('Normal VEB'!E18+'Normal VEB'!D18)</f>
+        <v>0.99841772151898733</v>
+      </c>
+      <c r="E18" s="29">
+        <f>'Normal VEB'!B18/('Normal VEB'!B18+'Normal VEB'!D18)</f>
+        <v>0.99895833333333328</v>
+      </c>
+      <c r="F18" s="30">
+        <f>'Normal VEB'!E18/('Normal VEB'!E18+'Normal VEB'!C18)</f>
+        <v>0.95030120481927716</v>
+      </c>
+      <c r="G18" s="28">
+        <f>('Normal VEB'!F18+'Normal VEB'!I18)/('Normal VEB'!F18+'Normal VEB'!G18+'Normal VEB'!H18+'Normal VEB'!I18)</f>
+        <v>0.57266009852216748</v>
+      </c>
+      <c r="H18" s="29">
+        <f>'Normal VEB'!F18/('Normal VEB'!F18+'Normal VEB'!G18)</f>
+        <v>0.63104838709677424</v>
+      </c>
+      <c r="I18" s="29">
+        <f>'Normal VEB'!I18/('Normal VEB'!I18+'Normal VEB'!H18)</f>
+        <v>0.48101265822784811</v>
+      </c>
+      <c r="J18" s="29">
+        <f>'Normal VEB'!F18/('Normal VEB'!F18+'Normal VEB'!H18)</f>
+        <v>0.65618448637316562</v>
+      </c>
+      <c r="K18" s="30">
+        <f>'Normal VEB'!I18/('Normal VEB'!I18+'Normal VEB'!G18)</f>
+        <v>0.45373134328358211</v>
+      </c>
+      <c r="L18" s="18">
+        <f>('Normal VEB'!J18+'Normal VEB'!M18)/('Normal VEB'!J18+'Normal VEB'!K18+'Normal VEB'!L18+'Normal VEB'!M18)</f>
+        <v>0.57204433497536944</v>
+      </c>
+      <c r="M18" s="18">
+        <f>'Normal VEB'!J18/('Normal VEB'!J18+'Normal VEB'!K18)</f>
+        <v>0.63608870967741937</v>
+      </c>
+      <c r="N18" s="18">
+        <f>'Normal VEB'!M18/('Normal VEB'!M18+'Normal VEB'!L18)</f>
+        <v>0.47151898734177217</v>
+      </c>
+      <c r="O18" s="18">
+        <f>'Normal VEB'!J18/('Normal VEB'!J18+'Normal VEB'!L18)</f>
+        <v>0.65388601036269434</v>
+      </c>
+      <c r="P18" s="18">
+        <f>'Normal VEB'!M18/('Normal VEB'!M18+'Normal VEB'!K18)</f>
+        <v>0.45220030349013657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="20">
+        <v>209</v>
+      </c>
+      <c r="B19" s="28">
+        <f>('Normal VEB'!B19+'Normal VEB'!E19)/('Normal VEB'!B19+'Normal VEB'!C19+'Normal VEB'!D19+'Normal VEB'!E19)</f>
+        <v>0.99817295980511567</v>
+      </c>
+      <c r="C19" s="29">
+        <f>'Normal VEB'!B19/('Normal VEB'!B19+'Normal VEB'!C19)</f>
+        <v>0.9981718464351006</v>
+      </c>
+      <c r="D19" s="29">
+        <f>'Normal VEB'!E19/('Normal VEB'!E19+'Normal VEB'!D19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <f>'Normal VEB'!B19/('Normal VEB'!B19+'Normal VEB'!D19)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="30">
+        <f>'Normal VEB'!E19/('Normal VEB'!E19+'Normal VEB'!C19)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="28">
+        <f>('Normal VEB'!F19+'Normal VEB'!I19)/('Normal VEB'!F19+'Normal VEB'!G19+'Normal VEB'!H19+'Normal VEB'!I19)</f>
+        <v>0.99939098660170522</v>
+      </c>
+      <c r="H19" s="29">
+        <f>'Normal VEB'!F19/('Normal VEB'!F19+'Normal VEB'!G19)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
+        <f>'Normal VEB'!I19/('Normal VEB'!I19+'Normal VEB'!H19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="29">
+        <f>'Normal VEB'!F19/('Normal VEB'!F19+'Normal VEB'!H19)</f>
+        <v>0.99939098660170522</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="18">
+        <f>('Normal VEB'!J19+'Normal VEB'!M19)/('Normal VEB'!J19+'Normal VEB'!K19+'Normal VEB'!L19+'Normal VEB'!M19)</f>
+        <v>0.99939098660170522</v>
+      </c>
+      <c r="M19" s="18">
+        <f>'Normal VEB'!J19/('Normal VEB'!J19+'Normal VEB'!K19)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="18">
+        <f>'Normal VEB'!M19/('Normal VEB'!M19+'Normal VEB'!L19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <f>'Normal VEB'!J19/('Normal VEB'!J19+'Normal VEB'!L19)</f>
+        <v>0.99939098660170522</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="20">
+        <v>210</v>
+      </c>
+      <c r="B20" s="28">
+        <f>('Normal VEB'!B20+'Normal VEB'!E20)/('Normal VEB'!B20+'Normal VEB'!C20+'Normal VEB'!D20+'Normal VEB'!E20)</f>
+        <v>0.99105011933174225</v>
+      </c>
+      <c r="C20" s="29">
+        <f>'Normal VEB'!B20/('Normal VEB'!B20+'Normal VEB'!C20)</f>
+        <v>0.99871216999356083</v>
+      </c>
+      <c r="D20" s="29">
+        <f>'Normal VEB'!E20/('Normal VEB'!E20+'Normal VEB'!D20)</f>
+        <v>0.89430894308943087</v>
+      </c>
+      <c r="E20" s="29">
+        <f>'Normal VEB'!B20/('Normal VEB'!B20+'Normal VEB'!D20)</f>
+        <v>0.99168797953964194</v>
+      </c>
+      <c r="F20" s="30">
+        <f>'Normal VEB'!E20/('Normal VEB'!E20+'Normal VEB'!C20)</f>
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="G20" s="28">
+        <f>('Normal VEB'!F20+'Normal VEB'!I20)/('Normal VEB'!F20+'Normal VEB'!G20+'Normal VEB'!H20+'Normal VEB'!I20)</f>
+        <v>0.89260143198090691</v>
+      </c>
+      <c r="H20" s="29">
+        <f>'Normal VEB'!F20/('Normal VEB'!F20+'Normal VEB'!G20)</f>
+        <v>0.94269156471345783</v>
+      </c>
+      <c r="I20" s="29">
+        <f>'Normal VEB'!I20/('Normal VEB'!I20+'Normal VEB'!H20)</f>
+        <v>0.26016260162601629</v>
+      </c>
+      <c r="J20" s="29">
+        <f>'Normal VEB'!F20/('Normal VEB'!F20+'Normal VEB'!H20)</f>
+        <v>0.94147909967845655</v>
+      </c>
+      <c r="K20" s="30">
+        <f>'Normal VEB'!I20/('Normal VEB'!I20+'Normal VEB'!G20)</f>
+        <v>0.26446280991735538</v>
+      </c>
+      <c r="L20" s="18">
+        <f>('Normal VEB'!J20+'Normal VEB'!M20)/('Normal VEB'!J20+'Normal VEB'!K20+'Normal VEB'!L20+'Normal VEB'!M20)</f>
+        <v>0.90095465393794749</v>
+      </c>
+      <c r="M20" s="18">
+        <f>'Normal VEB'!J20/('Normal VEB'!J20+'Normal VEB'!K20)</f>
+        <v>0.95621377978106892</v>
+      </c>
+      <c r="N20" s="18">
+        <f>'Normal VEB'!M20/('Normal VEB'!M20+'Normal VEB'!L20)</f>
+        <v>0.2032520325203252</v>
+      </c>
+      <c r="O20" s="18">
+        <f>'Normal VEB'!J20/('Normal VEB'!J20+'Normal VEB'!L20)</f>
+        <v>0.93809222994314589</v>
+      </c>
+      <c r="P20" s="18">
+        <f>'Normal VEB'!M20/('Normal VEB'!M20+'Normal VEB'!K20)</f>
+        <v>0.26881720430107525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="20">
+        <v>213</v>
+      </c>
+      <c r="B21" s="28">
+        <f>('Normal VEB'!B21+'Normal VEB'!E21)/('Normal VEB'!B21+'Normal VEB'!C21+'Normal VEB'!D21+'Normal VEB'!E21)</f>
+        <v>0.99836512261580379</v>
+      </c>
+      <c r="C21" s="29">
+        <f>'Normal VEB'!B21/('Normal VEB'!B21+'Normal VEB'!C21)</f>
+        <v>0.99880952380952381</v>
+      </c>
+      <c r="D21" s="29">
+        <f>'Normal VEB'!E21/('Normal VEB'!E21+'Normal VEB'!D21)</f>
+        <v>0.99354838709677418</v>
+      </c>
+      <c r="E21" s="29">
+        <f>'Normal VEB'!B21/('Normal VEB'!B21+'Normal VEB'!D21)</f>
+        <v>0.99940440738534841</v>
+      </c>
+      <c r="F21" s="30">
+        <f>'Normal VEB'!E21/('Normal VEB'!E21+'Normal VEB'!C21)</f>
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="G21" s="28">
+        <f>('Normal VEB'!F21+'Normal VEB'!I21)/('Normal VEB'!F21+'Normal VEB'!G21+'Normal VEB'!H21+'Normal VEB'!I21)</f>
+        <v>0.838692098092643</v>
+      </c>
+      <c r="H21" s="29">
+        <f>'Normal VEB'!F21/('Normal VEB'!F21+'Normal VEB'!G21)</f>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="I21" s="29">
+        <f>'Normal VEB'!I21/('Normal VEB'!I21+'Normal VEB'!H21)</f>
+        <v>0.12258064516129032</v>
+      </c>
+      <c r="J21" s="29">
+        <f>'Normal VEB'!F21/('Normal VEB'!F21+'Normal VEB'!H21)</f>
+        <v>0.91787439613526567</v>
+      </c>
+      <c r="K21" s="30">
+        <f>'Normal VEB'!I21/('Normal VEB'!I21+'Normal VEB'!G21)</f>
+        <v>0.10614525139664804</v>
+      </c>
+      <c r="L21" s="18">
+        <f>('Normal VEB'!J21+'Normal VEB'!M21)/('Normal VEB'!J21+'Normal VEB'!K21+'Normal VEB'!L21+'Normal VEB'!M21)</f>
+        <v>0.84523160762942784</v>
+      </c>
+      <c r="M21" s="18">
+        <f>'Normal VEB'!J21/('Normal VEB'!J21+'Normal VEB'!K21)</f>
+        <v>0.91190476190476188</v>
+      </c>
+      <c r="N21" s="18">
+        <f>'Normal VEB'!M21/('Normal VEB'!M21+'Normal VEB'!L21)</f>
+        <v>0.12258064516129032</v>
+      </c>
+      <c r="O21" s="18">
+        <f>'Normal VEB'!J21/('Normal VEB'!J21+'Normal VEB'!L21)</f>
+        <v>0.91846522781774576</v>
+      </c>
+      <c r="P21" s="18">
+        <f>'Normal VEB'!M21/('Normal VEB'!M21+'Normal VEB'!K21)</f>
+        <v>0.11377245508982035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="20">
+        <v>214</v>
+      </c>
+      <c r="B22" s="28">
+        <f>('Normal VEB'!B22+'Normal VEB'!E22)/('Normal VEB'!B22+'Normal VEB'!C22+'Normal VEB'!D22+'Normal VEB'!E22)</f>
+        <v>0.99581881533101047</v>
+      </c>
+      <c r="C22" s="29">
+        <f>'Normal VEB'!B22/('Normal VEB'!B22+'Normal VEB'!C22)</f>
+        <v>0.99921259842519683</v>
+      </c>
+      <c r="D22" s="29">
+        <f>'Normal VEB'!E22/('Normal VEB'!E22+'Normal VEB'!D22)</f>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="E22" s="29">
+        <f>'Normal VEB'!B22/('Normal VEB'!B22+'Normal VEB'!D22)</f>
+        <v>0.99607535321821039</v>
+      </c>
+      <c r="F22" s="30">
+        <f>'Normal VEB'!E22/('Normal VEB'!E22+'Normal VEB'!C22)</f>
+        <v>0.99378881987577639</v>
+      </c>
+      <c r="G22" s="28">
+        <f>('Normal VEB'!F22+'Normal VEB'!I22)/('Normal VEB'!F22+'Normal VEB'!G22+'Normal VEB'!H22+'Normal VEB'!I22)</f>
+        <v>0.99372822299651564</v>
+      </c>
+      <c r="H22" s="29">
+        <f>'Normal VEB'!F22/('Normal VEB'!F22+'Normal VEB'!G22)</f>
+        <v>0.99921259842519683</v>
+      </c>
+      <c r="I22" s="29">
+        <f>'Normal VEB'!I22/('Normal VEB'!I22+'Normal VEB'!H22)</f>
+        <v>0.95151515151515154</v>
+      </c>
+      <c r="J22" s="29">
+        <f>'Normal VEB'!F22/('Normal VEB'!F22+'Normal VEB'!H22)</f>
+        <v>0.99373531714956931</v>
+      </c>
+      <c r="K22" s="30">
+        <f>'Normal VEB'!I22/('Normal VEB'!I22+'Normal VEB'!G22)</f>
+        <v>0.99367088607594933</v>
+      </c>
+      <c r="L22" s="18">
+        <f>('Normal VEB'!J22+'Normal VEB'!M22)/('Normal VEB'!J22+'Normal VEB'!K22+'Normal VEB'!L22+'Normal VEB'!M22)</f>
+        <v>0.96655052264808361</v>
+      </c>
+      <c r="M22" s="18">
+        <f>'Normal VEB'!J22/('Normal VEB'!J22+'Normal VEB'!K22)</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="18">
+        <f>'Normal VEB'!M22/('Normal VEB'!M22+'Normal VEB'!L22)</f>
+        <v>0.70909090909090911</v>
+      </c>
+      <c r="O22" s="18">
+        <f>'Normal VEB'!J22/('Normal VEB'!J22+'Normal VEB'!L22)</f>
+        <v>0.96358118361153267</v>
+      </c>
+      <c r="P22" s="18">
+        <f>'Normal VEB'!M22/('Normal VEB'!M22+'Normal VEB'!K22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="20">
+        <v>215</v>
+      </c>
+      <c r="B23" s="28">
+        <f>('Normal VEB'!B23+'Normal VEB'!E23)/('Normal VEB'!B23+'Normal VEB'!C23+'Normal VEB'!D23+'Normal VEB'!E23)</f>
+        <v>0.99906846762925017</v>
+      </c>
+      <c r="C23" s="29">
+        <f>'Normal VEB'!B23/('Normal VEB'!B23+'Normal VEB'!C23)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="29">
+        <f>'Normal VEB'!E23/('Normal VEB'!E23+'Normal VEB'!D23)</f>
+        <v>0.978494623655914</v>
+      </c>
+      <c r="E23" s="29">
+        <f>'Normal VEB'!B23/('Normal VEB'!B23+'Normal VEB'!D23)</f>
+        <v>0.99902723735408561</v>
+      </c>
+      <c r="F23" s="30">
+        <f>'Normal VEB'!E23/('Normal VEB'!E23+'Normal VEB'!C23)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="28">
+        <f>('Normal VEB'!F23+'Normal VEB'!I23)/('Normal VEB'!F23+'Normal VEB'!G23+'Normal VEB'!H23+'Normal VEB'!I23)</f>
+        <v>0.92501164415463433</v>
+      </c>
+      <c r="H23" s="29">
+        <f>'Normal VEB'!F23/('Normal VEB'!F23+'Normal VEB'!G23)</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="I23" s="29">
+        <f>'Normal VEB'!I23/('Normal VEB'!I23+'Normal VEB'!H23)</f>
+        <v>0.11827956989247312</v>
+      </c>
+      <c r="J23" s="29">
+        <f>'Normal VEB'!F23/('Normal VEB'!F23+'Normal VEB'!H23)</f>
+        <v>0.96013612056392805</v>
+      </c>
+      <c r="K23" s="30">
+        <f>'Normal VEB'!I23/('Normal VEB'!I23+'Normal VEB'!G23)</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="L23" s="18">
+        <f>('Normal VEB'!J23+'Normal VEB'!M23)/('Normal VEB'!J23+'Normal VEB'!K23+'Normal VEB'!L23+'Normal VEB'!M23)</f>
+        <v>0.92734047508150907</v>
+      </c>
+      <c r="M23" s="18">
+        <f>'Normal VEB'!J23/('Normal VEB'!J23+'Normal VEB'!K23)</f>
+        <v>0.96494644595910417</v>
+      </c>
+      <c r="N23" s="18">
+        <f>'Normal VEB'!M23/('Normal VEB'!M23+'Normal VEB'!L23)</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="O23" s="18">
+        <f>'Normal VEB'!J23/('Normal VEB'!J23+'Normal VEB'!L23)</f>
+        <v>0.95934172313649568</v>
+      </c>
+      <c r="P23" s="18">
+        <f>'Normal VEB'!M23/('Normal VEB'!M23+'Normal VEB'!K23)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="20">
+        <v>219</v>
+      </c>
+      <c r="B24" s="28">
+        <f>('Normal VEB'!B24+'Normal VEB'!E24)/('Normal VEB'!B24+'Normal VEB'!C24+'Normal VEB'!D24+'Normal VEB'!E24)</f>
+        <v>0.99172932330827068</v>
+      </c>
+      <c r="C24" s="29">
+        <f>'Normal VEB'!B24/('Normal VEB'!B24+'Normal VEB'!C24)</f>
+        <v>0.99690402476780182</v>
+      </c>
+      <c r="D24" s="29">
+        <f>'Normal VEB'!E24/('Normal VEB'!E24+'Normal VEB'!D24)</f>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="E24" s="29">
+        <f>'Normal VEB'!B24/('Normal VEB'!B24+'Normal VEB'!D24)</f>
+        <v>0.99459459459459465</v>
+      </c>
+      <c r="F24" s="30">
+        <f>'Normal VEB'!E24/('Normal VEB'!E24+'Normal VEB'!C24)</f>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="G24" s="28">
+        <f>('Normal VEB'!F24+'Normal VEB'!I24)/('Normal VEB'!F24+'Normal VEB'!G24+'Normal VEB'!H24+'Normal VEB'!I24)</f>
+        <v>0.94962406015037593</v>
+      </c>
+      <c r="H24" s="29">
+        <f>'Normal VEB'!F24/('Normal VEB'!F24+'Normal VEB'!G24)</f>
+        <v>0.97755417956656343</v>
+      </c>
+      <c r="I24" s="29">
+        <f>'Normal VEB'!I24/('Normal VEB'!I24+'Normal VEB'!H24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="29">
+        <f>'Normal VEB'!F24/('Normal VEB'!F24+'Normal VEB'!H24)</f>
+        <v>0.97079169869331283</v>
+      </c>
+      <c r="K24" s="30">
+        <f>'Normal VEB'!I24/('Normal VEB'!I24+'Normal VEB'!G24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <f>('Normal VEB'!J24+'Normal VEB'!M24)/('Normal VEB'!J24+'Normal VEB'!K24+'Normal VEB'!L24+'Normal VEB'!M24)</f>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="M24" s="18">
+        <f>'Normal VEB'!J24/('Normal VEB'!J24+'Normal VEB'!K24)</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="18">
+        <f>'Normal VEB'!M24/('Normal VEB'!M24+'Normal VEB'!L24)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="18">
+        <f>'Normal VEB'!J24/('Normal VEB'!J24+'Normal VEB'!L24)</f>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="20">
+        <v>220</v>
+      </c>
+      <c r="B25" s="28">
+        <f>('Normal VEB'!B25+'Normal VEB'!E25)/('Normal VEB'!B25+'Normal VEB'!C25+'Normal VEB'!D25+'Normal VEB'!E25)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="29">
+        <f>'Normal VEB'!B25/('Normal VEB'!B25+'Normal VEB'!C25)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="29">
+        <f>'Normal VEB'!B25/('Normal VEB'!B25+'Normal VEB'!D25)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="28">
+        <f>('Normal VEB'!F25+'Normal VEB'!I25)/('Normal VEB'!F25+'Normal VEB'!G25+'Normal VEB'!H25+'Normal VEB'!I25)</f>
+        <v>0.99421009098428448</v>
+      </c>
+      <c r="H25" s="29">
+        <f>'Normal VEB'!F25/('Normal VEB'!F25+'Normal VEB'!G25)</f>
+        <v>0.99421009098428448</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="29">
+        <f>'Normal VEB'!F25/('Normal VEB'!F25+'Normal VEB'!H25)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="30">
+        <f>'Normal VEB'!I25/('Normal VEB'!I25+'Normal VEB'!G25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="18">
+        <f>('Normal VEB'!J25+'Normal VEB'!M25)/('Normal VEB'!J25+'Normal VEB'!K25+'Normal VEB'!L25+'Normal VEB'!M25)</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="18">
+        <f>'Normal VEB'!J25/('Normal VEB'!J25+'Normal VEB'!K25)</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="18">
+        <f>'Normal VEB'!J25/('Normal VEB'!J25+'Normal VEB'!L25)</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="20">
+        <v>221</v>
+      </c>
+      <c r="B26" s="28">
+        <f>('Normal VEB'!B26+'Normal VEB'!E26)/('Normal VEB'!B26+'Normal VEB'!C26+'Normal VEB'!D26+'Normal VEB'!E26)</f>
+        <v>0.9949141767323586</v>
+      </c>
+      <c r="C26" s="29">
+        <f>'Normal VEB'!B26/('Normal VEB'!B26+'Normal VEB'!C26)</f>
+        <v>0.99533073929961091</v>
+      </c>
+      <c r="D26" s="29">
+        <f>'Normal VEB'!E26/('Normal VEB'!E26+'Normal VEB'!D26)</f>
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="E26" s="29">
+        <f>'Normal VEB'!B26/('Normal VEB'!B26+'Normal VEB'!D26)</f>
+        <v>0.99843871975019516</v>
+      </c>
+      <c r="F26" s="30">
+        <f>'Normal VEB'!E26/('Normal VEB'!E26+'Normal VEB'!C26)</f>
+        <v>0.97945205479452058</v>
+      </c>
+      <c r="G26" s="28">
+        <f>('Normal VEB'!F26+'Normal VEB'!I26)/('Normal VEB'!F26+'Normal VEB'!G26+'Normal VEB'!H26+'Normal VEB'!I26)</f>
+        <v>0.9949141767323586</v>
+      </c>
+      <c r="H26" s="29">
+        <f>'Normal VEB'!F26/('Normal VEB'!F26+'Normal VEB'!G26)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="29">
+        <f>'Normal VEB'!I26/('Normal VEB'!I26+'Normal VEB'!H26)</f>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="J26" s="29">
+        <f>'Normal VEB'!F26/('Normal VEB'!F26+'Normal VEB'!H26)</f>
+        <v>0.99381283836040213</v>
+      </c>
+      <c r="K26" s="30">
+        <f>'Normal VEB'!I26/('Normal VEB'!I26+'Normal VEB'!G26)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="18">
+        <f>('Normal VEB'!J26+'Normal VEB'!M26)/('Normal VEB'!J26+'Normal VEB'!K26+'Normal VEB'!L26+'Normal VEB'!M26)</f>
+        <v>0.99364272091544814</v>
+      </c>
+      <c r="M26" s="18">
+        <f>'Normal VEB'!J26/('Normal VEB'!J26+'Normal VEB'!K26)</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="18">
+        <f>'Normal VEB'!M26/('Normal VEB'!M26+'Normal VEB'!L26)</f>
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="O26" s="18">
+        <f>'Normal VEB'!J26/('Normal VEB'!J26+'Normal VEB'!L26)</f>
+        <v>0.99227799227799229</v>
+      </c>
+      <c r="P26" s="18">
+        <f>'Normal VEB'!M26/('Normal VEB'!M26+'Normal VEB'!K26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="20">
+        <v>223</v>
+      </c>
+      <c r="B27" s="28">
+        <f>('Normal VEB'!B27+'Normal VEB'!E27)/('Normal VEB'!B27+'Normal VEB'!C27+'Normal VEB'!D27+'Normal VEB'!E27)</f>
+        <v>0.86744043982895536</v>
+      </c>
+      <c r="C27" s="29">
+        <f>'Normal VEB'!B27/('Normal VEB'!B27+'Normal VEB'!C27)</f>
+        <v>0.99688715953307394</v>
+      </c>
+      <c r="D27" s="29">
+        <f>'Normal VEB'!E27/('Normal VEB'!E27+'Normal VEB'!D27)</f>
+        <v>0.39488636363636365</v>
+      </c>
+      <c r="E27" s="29">
+        <f>'Normal VEB'!B27/('Normal VEB'!B27+'Normal VEB'!D27)</f>
+        <v>0.85742971887550201</v>
+      </c>
+      <c r="F27" s="30">
+        <f>'Normal VEB'!E27/('Normal VEB'!E27+'Normal VEB'!C27)</f>
+        <v>0.97202797202797198</v>
+      </c>
+      <c r="G27" s="28">
+        <f>('Normal VEB'!F27+'Normal VEB'!I27)/('Normal VEB'!F27+'Normal VEB'!G27+'Normal VEB'!H27+'Normal VEB'!I27)</f>
+        <v>0.72021991447770306</v>
+      </c>
+      <c r="H27" s="29">
+        <f>'Normal VEB'!F27/('Normal VEB'!F27+'Normal VEB'!G27)</f>
+        <v>0.86225680933852145</v>
+      </c>
+      <c r="I27" s="29">
+        <f>'Normal VEB'!I27/('Normal VEB'!I27+'Normal VEB'!H27)</f>
+        <v>0.20170454545454544</v>
+      </c>
+      <c r="J27" s="29">
+        <f>'Normal VEB'!F27/('Normal VEB'!F27+'Normal VEB'!H27)</f>
+        <v>0.79769618430525557</v>
+      </c>
+      <c r="K27" s="30">
+        <f>'Normal VEB'!I27/('Normal VEB'!I27+'Normal VEB'!G27)</f>
+        <v>0.28629032258064518</v>
+      </c>
+      <c r="L27" s="18">
+        <f>('Normal VEB'!J27+'Normal VEB'!M27)/('Normal VEB'!J27+'Normal VEB'!K27+'Normal VEB'!L27+'Normal VEB'!M27)</f>
+        <v>0.78497251069028706</v>
+      </c>
+      <c r="M27" s="18">
+        <f>'Normal VEB'!J27/('Normal VEB'!J27+'Normal VEB'!K27)</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="18">
+        <f>'Normal VEB'!M27/('Normal VEB'!M27+'Normal VEB'!L27)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="18">
+        <f>'Normal VEB'!J27/('Normal VEB'!J27+'Normal VEB'!L27)</f>
+        <v>0.78497251069028706</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="20">
+        <v>228</v>
+      </c>
+      <c r="B28" s="28">
+        <f>('Normal VEB'!B28+'Normal VEB'!E28)/('Normal VEB'!B28+'Normal VEB'!C28+'Normal VEB'!D28+'Normal VEB'!E28)</f>
+        <v>0.98691301000769827</v>
+      </c>
+      <c r="C28" s="29">
+        <f>'Normal VEB'!B28/('Normal VEB'!B28+'Normal VEB'!C28)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <f>'Normal VEB'!E28/('Normal VEB'!E28+'Normal VEB'!D28)</f>
+        <v>0.92672413793103448</v>
+      </c>
+      <c r="E28" s="29">
+        <f>'Normal VEB'!B28/('Normal VEB'!B28+'Normal VEB'!D28)</f>
+        <v>0.98431734317343178</v>
+      </c>
+      <c r="F28" s="30">
+        <f>'Normal VEB'!E28/('Normal VEB'!E28+'Normal VEB'!C28)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="28">
+        <f>('Normal VEB'!F28+'Normal VEB'!I28)/('Normal VEB'!F28+'Normal VEB'!G28+'Normal VEB'!H28+'Normal VEB'!I28)</f>
+        <v>0.90916089299461122</v>
+      </c>
+      <c r="H28" s="29">
+        <f>'Normal VEB'!F28/('Normal VEB'!F28+'Normal VEB'!G28)</f>
+        <v>0.94845360824742264</v>
+      </c>
+      <c r="I28" s="29">
+        <f>'Normal VEB'!I28/('Normal VEB'!I28+'Normal VEB'!H28)</f>
+        <v>0.72844827586206895</v>
+      </c>
+      <c r="J28" s="29">
+        <f>'Normal VEB'!F28/('Normal VEB'!F28+'Normal VEB'!H28)</f>
+        <v>0.94139534883720932</v>
+      </c>
+      <c r="K28" s="30">
+        <f>'Normal VEB'!I28/('Normal VEB'!I28+'Normal VEB'!G28)</f>
+        <v>0.7544642857142857</v>
+      </c>
+      <c r="L28" s="18">
+        <f>('Normal VEB'!J28+'Normal VEB'!M28)/('Normal VEB'!J28+'Normal VEB'!K28+'Normal VEB'!L28+'Normal VEB'!M28)</f>
+        <v>0.89145496535796764</v>
+      </c>
+      <c r="M28" s="18">
+        <f>'Normal VEB'!J28/('Normal VEB'!J28+'Normal VEB'!K28)</f>
+        <v>0.95407685098406747</v>
+      </c>
+      <c r="N28" s="18">
+        <f>'Normal VEB'!M28/('Normal VEB'!M28+'Normal VEB'!L28)</f>
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="O28" s="18">
+        <f>'Normal VEB'!J28/('Normal VEB'!J28+'Normal VEB'!L28)</f>
+        <v>0.91711711711711708</v>
+      </c>
+      <c r="P28" s="18">
+        <f>'Normal VEB'!M28/('Normal VEB'!M28+'Normal VEB'!K28)</f>
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="21">
+        <v>233</v>
+      </c>
+      <c r="B29" s="31">
+        <f>('Normal VEB'!B29+'Normal VEB'!E29)/('Normal VEB'!B29+'Normal VEB'!C29+'Normal VEB'!D29+'Normal VEB'!E29)</f>
+        <v>0.99643402954661231</v>
+      </c>
+      <c r="C29" s="22">
+        <f>'Normal VEB'!B29/('Normal VEB'!B29+'Normal VEB'!C29)</f>
+        <v>0.99930747922437668</v>
+      </c>
+      <c r="D29" s="22">
+        <f>'Normal VEB'!E29/('Normal VEB'!E29+'Normal VEB'!D29)</f>
+        <v>0.98843930635838151</v>
+      </c>
+      <c r="E29" s="22">
+        <f>'Normal VEB'!B29/('Normal VEB'!B29+'Normal VEB'!D29)</f>
+        <v>0.99585921325051763</v>
+      </c>
+      <c r="F29" s="32">
+        <f>'Normal VEB'!E29/('Normal VEB'!E29+'Normal VEB'!C29)</f>
+        <v>0.99805447470817121</v>
+      </c>
+      <c r="G29" s="31">
+        <f>('Normal VEB'!F29+'Normal VEB'!I29)/('Normal VEB'!F29+'Normal VEB'!G29+'Normal VEB'!H29+'Normal VEB'!I29)</f>
+        <v>0.68721344880285273</v>
+      </c>
+      <c r="H29" s="22">
+        <f>'Normal VEB'!F29/('Normal VEB'!F29+'Normal VEB'!G29)</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="I29" s="22">
+        <f>'Normal VEB'!I29/('Normal VEB'!I29+'Normal VEB'!H29)</f>
+        <v>0.40269749518304432</v>
+      </c>
+      <c r="J29" s="22">
+        <f>'Normal VEB'!F29/('Normal VEB'!F29+'Normal VEB'!H29)</f>
+        <v>0.78620689655172415</v>
+      </c>
+      <c r="K29" s="32">
+        <f>'Normal VEB'!I29/('Normal VEB'!I29+'Normal VEB'!G29)</f>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="L29" s="22">
+        <f>('Normal VEB'!J29+'Normal VEB'!M29)/('Normal VEB'!J29+'Normal VEB'!K29+'Normal VEB'!L29+'Normal VEB'!M29)</f>
+        <v>0.6887417218543046</v>
+      </c>
+      <c r="M29" s="22">
+        <f>'Normal VEB'!J29/('Normal VEB'!J29+'Normal VEB'!K29)</f>
+        <v>0.7936288088642659</v>
+      </c>
+      <c r="N29" s="22">
+        <f>'Normal VEB'!M29/('Normal VEB'!M29+'Normal VEB'!L29)</f>
+        <v>0.39691714836223507</v>
+      </c>
+      <c r="O29" s="22">
+        <f>'Normal VEB'!J29/('Normal VEB'!J29+'Normal VEB'!L29)</f>
+        <v>0.78546949965729951</v>
+      </c>
+      <c r="P29" s="22">
+        <f>'Normal VEB'!M29/('Normal VEB'!M29+'Normal VEB'!K29)</f>
+        <v>0.40873015873015872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="24">
+        <f>AVERAGE(B3:B29)</f>
+        <v>0.9778500070996935</v>
+      </c>
+      <c r="C30" s="24">
+        <f t="shared" ref="C30:P30" si="0">AVERAGE(C3:C29)</f>
+        <v>0.99397980645179473</v>
+      </c>
+      <c r="D30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.81557912814972822</v>
+      </c>
+      <c r="E30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.98149444272130271</v>
+      </c>
+      <c r="F30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.82732856017262735</v>
+      </c>
+      <c r="G30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.90670665284612539</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.94351182596173522</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.4317320343748961</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.93800496246183585</v>
+      </c>
+      <c r="K30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.4125059328669281</v>
+      </c>
+      <c r="L30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.91051161394525681</v>
+      </c>
+      <c r="M30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.95702493140656508</v>
+      </c>
+      <c r="N30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.36562224117202058</v>
+      </c>
+      <c r="O30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.93120018858218478</v>
+      </c>
+      <c r="P30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.5044605083711724</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="1048575" man="1"/>
+  </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -3522,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3530,7 +8069,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/150802_AAMI_Accuracy.xlsx
+++ b/150802_AAMI_Accuracy.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="240" windowWidth="21940" windowHeight="13760" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22380" windowHeight="14000" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Schewartz - alpha (Rejected)" sheetId="6" r:id="rId1"/>
     <sheet name="Normal_VEB_Performance (Reject)" sheetId="7" r:id="rId2"/>
     <sheet name="Schewartz - NewAlpha" sheetId="8" r:id="rId3"/>
     <sheet name="Performance_Schewartz" sheetId="9" r:id="rId4"/>
-    <sheet name="CUSUM" sheetId="5" r:id="rId5"/>
-    <sheet name="Performance_CUSUM" sheetId="10" r:id="rId6"/>
+    <sheet name="150910_FinalTest" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
   <si>
     <t>Accuracy</t>
   </si>
@@ -70,16 +69,13 @@
   <si>
     <t>AVG</t>
   </si>
-  <si>
-    <t>Mine (K = 5)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -289,7 +285,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="336">
+  <cellStyleXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -626,8 +622,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -709,9 +715,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,20 +722,26 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="101" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="336">
+  <cellStyles count="346">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -900,6 +909,11 @@
     <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1067,6 +1081,11 @@
     <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="101" builtinId="5"/>
   </cellStyles>
@@ -1421,24 +1440,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
@@ -2742,27 +2761,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="10" t="s">
@@ -4635,7 +4654,7 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="B23:E23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4656,24 +4675,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
@@ -5181,7 +5200,7 @@
         <v>197</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6">
         <v>817</v>
@@ -5961,7 +5980,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5971,75 +5990,75 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="G2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="31" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6047,22 +6066,22 @@
       <c r="A3" s="15">
         <v>100</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="36">
         <f>('Schewartz - NewAlpha'!B3+'Schewartz - NewAlpha'!E3 )/('Schewartz - NewAlpha'!B3+'Schewartz - NewAlpha'!C3+'Schewartz - NewAlpha'!D3+'Schewartz - NewAlpha'!E3 )</f>
         <v>1</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="34">
         <f>('Schewartz - NewAlpha'!B3 )/ ('Schewartz - NewAlpha'!B3+'Schewartz - NewAlpha'!C3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="34">
         <f>('Schewartz - NewAlpha'!B3)/('Schewartz - NewAlpha'!B3+'Schewartz - NewAlpha'!D3)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="14">
@@ -6100,23 +6119,23 @@
       <c r="A4" s="15">
         <v>105</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="36">
         <f>('Schewartz - NewAlpha'!B4+'Schewartz - NewAlpha'!E4 )/('Schewartz - NewAlpha'!B4+'Schewartz - NewAlpha'!C4+'Schewartz - NewAlpha'!D4+'Schewartz - NewAlpha'!E4 )</f>
         <v>0.98781230956733701</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="34">
         <f>('Schewartz - NewAlpha'!B4 )/ ('Schewartz - NewAlpha'!B4+'Schewartz - NewAlpha'!C4)</f>
         <v>0.99072929542645238</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="34">
         <f>('Schewartz - NewAlpha'!E4)/('Schewartz - NewAlpha'!D4+'Schewartz - NewAlpha'!E4)</f>
         <v>0.78260869565217395</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="34">
         <f>('Schewartz - NewAlpha'!B4)/('Schewartz - NewAlpha'!B4+'Schewartz - NewAlpha'!D4)</f>
         <v>0.99689054726368154</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="35">
         <f>('Schewartz - NewAlpha'!E4)/('Schewartz - NewAlpha'!C4+'Schewartz - NewAlpha'!E4)</f>
         <v>0.54545454545454541</v>
       </c>
@@ -6155,23 +6174,23 @@
       <c r="A5" s="15">
         <v>106</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="36">
         <f>('Schewartz - NewAlpha'!B5+'Schewartz - NewAlpha'!E5 )/('Schewartz - NewAlpha'!B5+'Schewartz - NewAlpha'!C5+'Schewartz - NewAlpha'!D5+'Schewartz - NewAlpha'!E5 )</f>
         <v>0.97769230769230764</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <f>('Schewartz - NewAlpha'!B5 )/ ('Schewartz - NewAlpha'!B5+'Schewartz - NewAlpha'!C5)</f>
         <v>0.99608227228207635</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="34">
         <f>('Schewartz - NewAlpha'!E5)/('Schewartz - NewAlpha'!D5+'Schewartz - NewAlpha'!E5)</f>
         <v>0.91039426523297495</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="34">
         <f>('Schewartz - NewAlpha'!B5)/('Schewartz - NewAlpha'!B5+'Schewartz - NewAlpha'!D5)</f>
         <v>0.97600767754318618</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="35">
         <f>('Schewartz - NewAlpha'!E5)/('Schewartz - NewAlpha'!C5+'Schewartz - NewAlpha'!E5)</f>
         <v>0.98449612403100772</v>
       </c>
@@ -6210,23 +6229,23 @@
       <c r="A6" s="15">
         <v>108</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="36">
         <f>('Schewartz - NewAlpha'!B6+'Schewartz - NewAlpha'!E6 )/('Schewartz - NewAlpha'!B6+'Schewartz - NewAlpha'!C6+'Schewartz - NewAlpha'!D6+'Schewartz - NewAlpha'!E6 )</f>
         <v>0.99099909990999102</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <f>('Schewartz - NewAlpha'!B6 )/ ('Schewartz - NewAlpha'!B6+'Schewartz - NewAlpha'!C6)</f>
         <v>0.99909173478655766</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <f>('Schewartz - NewAlpha'!E6)/('Schewartz - NewAlpha'!D6+'Schewartz - NewAlpha'!E6)</f>
         <v>0.1</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="34">
         <f>('Schewartz - NewAlpha'!B6)/('Schewartz - NewAlpha'!B6+'Schewartz - NewAlpha'!D6)</f>
         <v>0.99188458070333629</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="35">
         <f>('Schewartz - NewAlpha'!E6)/('Schewartz - NewAlpha'!C6+'Schewartz - NewAlpha'!E6)</f>
         <v>0.5</v>
       </c>
@@ -6265,23 +6284,23 @@
       <c r="A7" s="15">
         <v>109</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="36">
         <f>('Schewartz - NewAlpha'!B7+'Schewartz - NewAlpha'!E7 )/('Schewartz - NewAlpha'!B7+'Schewartz - NewAlpha'!C7+'Schewartz - NewAlpha'!D7+'Schewartz - NewAlpha'!E7 )</f>
         <v>0.99566294919454768</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="34">
         <f>('Schewartz - NewAlpha'!B7 )/ ('Schewartz - NewAlpha'!B7+'Schewartz - NewAlpha'!C7)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <f>('Schewartz - NewAlpha'!E7)/('Schewartz - NewAlpha'!D7+'Schewartz - NewAlpha'!E7)</f>
         <v>0.69565217391304346</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="34">
         <f>('Schewartz - NewAlpha'!B7)/('Schewartz - NewAlpha'!B7+'Schewartz - NewAlpha'!D7)</f>
         <v>0.99561952440550683</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="35">
         <f>('Schewartz - NewAlpha'!E7)/('Schewartz - NewAlpha'!C7+'Schewartz - NewAlpha'!E7)</f>
         <v>1</v>
       </c>
@@ -6320,22 +6339,22 @@
       <c r="A8" s="15">
         <v>113</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="36">
         <f>('Schewartz - NewAlpha'!B8+'Schewartz - NewAlpha'!E8 )/('Schewartz - NewAlpha'!B8+'Schewartz - NewAlpha'!C8+'Schewartz - NewAlpha'!D8+'Schewartz - NewAlpha'!E8 )</f>
         <v>1</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="34">
         <f>('Schewartz - NewAlpha'!B8 )/ ('Schewartz - NewAlpha'!B8+'Schewartz - NewAlpha'!C8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="34">
         <f>('Schewartz - NewAlpha'!B8)/('Schewartz - NewAlpha'!B8+'Schewartz - NewAlpha'!D8)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="14">
@@ -6373,23 +6392,23 @@
       <c r="A9" s="15">
         <v>114</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="36">
         <f>('Schewartz - NewAlpha'!B9+'Schewartz - NewAlpha'!E9 )/('Schewartz - NewAlpha'!B9+'Schewartz - NewAlpha'!C9+'Schewartz - NewAlpha'!D9+'Schewartz - NewAlpha'!E9 )</f>
         <v>0.99323181049069376</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="34">
         <f>('Schewartz - NewAlpha'!B9 )/ ('Schewartz - NewAlpha'!B9+'Schewartz - NewAlpha'!C9)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <f>('Schewartz - NewAlpha'!E9)/('Schewartz - NewAlpha'!D9+'Schewartz - NewAlpha'!E9)</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="34">
         <f>('Schewartz - NewAlpha'!B9)/('Schewartz - NewAlpha'!B9+'Schewartz - NewAlpha'!D9)</f>
         <v>0.99310344827586206</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="35">
         <f>('Schewartz - NewAlpha'!E9)/('Schewartz - NewAlpha'!C9+'Schewartz - NewAlpha'!E9)</f>
         <v>1</v>
       </c>
@@ -6428,23 +6447,23 @@
       <c r="A10" s="15">
         <v>116</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="36">
         <f>('Schewartz - NewAlpha'!B10+'Schewartz - NewAlpha'!E10 )/('Schewartz - NewAlpha'!B10+'Schewartz - NewAlpha'!C10+'Schewartz - NewAlpha'!D10+'Schewartz - NewAlpha'!E10 )</f>
         <v>0.94977168949771684</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <f>('Schewartz - NewAlpha'!B10 )/ ('Schewartz - NewAlpha'!B10+'Schewartz - NewAlpha'!C10)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <f>('Schewartz - NewAlpha'!E10)/('Schewartz - NewAlpha'!D10+'Schewartz - NewAlpha'!E10)</f>
         <v>0.11494252873563218</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <f>('Schewartz - NewAlpha'!B10)/('Schewartz - NewAlpha'!B10+'Schewartz - NewAlpha'!D10)</f>
         <v>0.94944189100459619</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="35">
         <f>('Schewartz - NewAlpha'!E10)/('Schewartz - NewAlpha'!C10+'Schewartz - NewAlpha'!E10)</f>
         <v>1</v>
       </c>
@@ -6483,23 +6502,23 @@
       <c r="A11" s="15">
         <v>118</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="36">
         <f>('Schewartz - NewAlpha'!B11+'Schewartz - NewAlpha'!E11 )/('Schewartz - NewAlpha'!B11+'Schewartz - NewAlpha'!C11+'Schewartz - NewAlpha'!D11+'Schewartz - NewAlpha'!E11 )</f>
         <v>0.99424874191229329</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="34">
         <f>('Schewartz - NewAlpha'!B11 )/ ('Schewartz - NewAlpha'!B11+'Schewartz - NewAlpha'!C11)</f>
         <v>0.9985528219971056</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <f>('Schewartz - NewAlpha'!E11)/('Schewartz - NewAlpha'!D11+'Schewartz - NewAlpha'!E11)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="34">
         <f>('Schewartz - NewAlpha'!B11)/('Schewartz - NewAlpha'!B11+'Schewartz - NewAlpha'!D11)</f>
         <v>0.99567099567099571</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="35">
         <f>('Schewartz - NewAlpha'!E11)/('Schewartz - NewAlpha'!C11+'Schewartz - NewAlpha'!E11)</f>
         <v>0.6</v>
       </c>
@@ -6538,23 +6557,23 @@
       <c r="A12" s="15">
         <v>119</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="36">
         <f>('Schewartz - NewAlpha'!B12+'Schewartz - NewAlpha'!E12 )/('Schewartz - NewAlpha'!B12+'Schewartz - NewAlpha'!C12+'Schewartz - NewAlpha'!D12+'Schewartz - NewAlpha'!E12 )</f>
         <v>0.97809076682316121</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="34">
         <f>('Schewartz - NewAlpha'!B12 )/ ('Schewartz - NewAlpha'!B12+'Schewartz - NewAlpha'!C12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="34">
         <f>('Schewartz - NewAlpha'!E12)/('Schewartz - NewAlpha'!D12+'Schewartz - NewAlpha'!E12)</f>
         <v>0.90140845070422537</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="34">
         <f>('Schewartz - NewAlpha'!B12)/('Schewartz - NewAlpha'!B12+'Schewartz - NewAlpha'!D12)</f>
         <v>0.9726027397260274</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="35">
         <f>('Schewartz - NewAlpha'!E12)/('Schewartz - NewAlpha'!C12+'Schewartz - NewAlpha'!E12)</f>
         <v>1</v>
       </c>
@@ -6593,23 +6612,23 @@
       <c r="A13" s="15">
         <v>200</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="36">
         <f>('Schewartz - NewAlpha'!B13+'Schewartz - NewAlpha'!E13 )/('Schewartz - NewAlpha'!B13+'Schewartz - NewAlpha'!C13+'Schewartz - NewAlpha'!D13+'Schewartz - NewAlpha'!E13 )</f>
         <v>0.93027413587604291</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="34">
         <f>('Schewartz - NewAlpha'!B13 )/ ('Schewartz - NewAlpha'!B13+'Schewartz - NewAlpha'!C13)</f>
         <v>0.8966756513926325</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="34">
         <f>('Schewartz - NewAlpha'!E13)/('Schewartz - NewAlpha'!D13+'Schewartz - NewAlpha'!E13)</f>
         <v>0.99646017699115041</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="34">
         <f>('Schewartz - NewAlpha'!B13)/('Schewartz - NewAlpha'!B13+'Schewartz - NewAlpha'!D13)</f>
         <v>0.998</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="35">
         <f>('Schewartz - NewAlpha'!E13)/('Schewartz - NewAlpha'!C13+'Schewartz - NewAlpha'!E13)</f>
         <v>0.8303834808259587</v>
       </c>
@@ -6648,22 +6667,22 @@
       <c r="A14" s="15">
         <v>201</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="36">
         <f>('Schewartz - NewAlpha'!B14+'Schewartz - NewAlpha'!E14 )/('Schewartz - NewAlpha'!B14+'Schewartz - NewAlpha'!C14+'Schewartz - NewAlpha'!D14+'Schewartz - NewAlpha'!E14 )</f>
-        <v>0.8057199211045365</v>
-      </c>
-      <c r="C14" s="36">
+        <v>0.80591133004926108</v>
+      </c>
+      <c r="C14" s="34">
         <f>('Schewartz - NewAlpha'!B14 )/ ('Schewartz - NewAlpha'!B14+'Schewartz - NewAlpha'!C14)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="34">
         <f>('Schewartz - NewAlpha'!B14)/('Schewartz - NewAlpha'!B14+'Schewartz - NewAlpha'!D14)</f>
         <v>0.8057199211045365</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="14">
@@ -6701,23 +6720,23 @@
       <c r="A15" s="15">
         <v>202</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="36">
         <f>('Schewartz - NewAlpha'!B15+'Schewartz - NewAlpha'!E15 )/('Schewartz - NewAlpha'!B15+'Schewartz - NewAlpha'!C15+'Schewartz - NewAlpha'!D15+'Schewartz - NewAlpha'!E15 )</f>
         <v>0.99207606973058637</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="34">
         <f>('Schewartz - NewAlpha'!B15 )/ ('Schewartz - NewAlpha'!B15+'Schewartz - NewAlpha'!C15)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="34">
         <f>('Schewartz - NewAlpha'!E15)/('Schewartz - NewAlpha'!D15+'Schewartz - NewAlpha'!E15)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="34">
         <f>('Schewartz - NewAlpha'!B15)/('Schewartz - NewAlpha'!B15+'Schewartz - NewAlpha'!D15)</f>
         <v>0.99205087440381556</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="35">
         <f>('Schewartz - NewAlpha'!E15)/('Schewartz - NewAlpha'!C15+'Schewartz - NewAlpha'!E15)</f>
         <v>1</v>
       </c>
@@ -6756,23 +6775,23 @@
       <c r="A16" s="15">
         <v>203</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="36">
         <f>('Schewartz - NewAlpha'!B16+'Schewartz - NewAlpha'!E16 )/('Schewartz - NewAlpha'!B16+'Schewartz - NewAlpha'!C16+'Schewartz - NewAlpha'!D16+'Schewartz - NewAlpha'!E16 )</f>
         <v>0.93371310201967894</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="34">
         <f>('Schewartz - NewAlpha'!B16 )/ ('Schewartz - NewAlpha'!B16+'Schewartz - NewAlpha'!C16)</f>
         <v>0.93255671367259352</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <f>('Schewartz - NewAlpha'!E16)/('Schewartz - NewAlpha'!D16+'Schewartz - NewAlpha'!E16)</f>
         <v>0.94</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="34">
         <f>('Schewartz - NewAlpha'!B16)/('Schewartz - NewAlpha'!B16+'Schewartz - NewAlpha'!D16)</f>
         <v>0.98830409356725146</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="35">
         <f>('Schewartz - NewAlpha'!E16)/('Schewartz - NewAlpha'!C16+'Schewartz - NewAlpha'!E16)</f>
         <v>0.71938775510204078</v>
       </c>
@@ -6811,22 +6830,22 @@
       <c r="A17" s="15">
         <v>207</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="36">
         <f>('Schewartz - NewAlpha'!B17+'Schewartz - NewAlpha'!E17 )/('Schewartz - NewAlpha'!B17+'Schewartz - NewAlpha'!C17+'Schewartz - NewAlpha'!D17+'Schewartz - NewAlpha'!E17 )</f>
         <v>0.52170542635658912</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <f>('Schewartz - NewAlpha'!B17 )/ ('Schewartz - NewAlpha'!B17+'Schewartz - NewAlpha'!C17)</f>
         <v>0.52170542635658912</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="34">
         <f>('Schewartz - NewAlpha'!B17)/('Schewartz - NewAlpha'!B17+'Schewartz - NewAlpha'!D17)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="14">
@@ -6864,23 +6883,23 @@
       <c r="A18" s="15">
         <v>208</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="36">
         <f>('Schewartz - NewAlpha'!B18+'Schewartz - NewAlpha'!E18 )/('Schewartz - NewAlpha'!B18+'Schewartz - NewAlpha'!C18+'Schewartz - NewAlpha'!D18+'Schewartz - NewAlpha'!E18 )</f>
         <v>0.99568965517241381</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <f>('Schewartz - NewAlpha'!B18 )/ ('Schewartz - NewAlpha'!B18+'Schewartz - NewAlpha'!C18)</f>
         <v>0.998991935483871</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <f>('Schewartz - NewAlpha'!E18)/('Schewartz - NewAlpha'!D18+'Schewartz - NewAlpha'!E18)</f>
         <v>0.990506329113924</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <f>('Schewartz - NewAlpha'!B18)/('Schewartz - NewAlpha'!B18+'Schewartz - NewAlpha'!D18)</f>
         <v>0.99398194583751254</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="35">
         <f>('Schewartz - NewAlpha'!E18)/('Schewartz - NewAlpha'!C18+'Schewartz - NewAlpha'!E18)</f>
         <v>0.99840510366826152</v>
       </c>
@@ -6919,22 +6938,22 @@
       <c r="A19" s="15">
         <v>209</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="36">
         <f>('Schewartz - NewAlpha'!B19+'Schewartz - NewAlpha'!E19 )/('Schewartz - NewAlpha'!B19+'Schewartz - NewAlpha'!C19+'Schewartz - NewAlpha'!D19+'Schewartz - NewAlpha'!E19 )</f>
         <v>0.98172959805115712</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <f>('Schewartz - NewAlpha'!B19 )/ ('Schewartz - NewAlpha'!B19+'Schewartz - NewAlpha'!C19)</f>
         <v>0.98232784887263869</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <f>('Schewartz - NewAlpha'!B19)/('Schewartz - NewAlpha'!B19+'Schewartz - NewAlpha'!D19)</f>
         <v>0.99938003719776813</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="14">
@@ -6972,23 +6991,23 @@
       <c r="A20" s="15">
         <v>210</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="36">
         <f>('Schewartz - NewAlpha'!B20+'Schewartz - NewAlpha'!E20 )/('Schewartz - NewAlpha'!B20+'Schewartz - NewAlpha'!C20+'Schewartz - NewAlpha'!D20+'Schewartz - NewAlpha'!E20 )</f>
         <v>0.98985680190930792</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="34">
         <f>('Schewartz - NewAlpha'!B20 )/ ('Schewartz - NewAlpha'!B20+'Schewartz - NewAlpha'!C20)</f>
         <v>0.99871216999356083</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <f>('Schewartz - NewAlpha'!E20)/('Schewartz - NewAlpha'!D20+'Schewartz - NewAlpha'!E20)</f>
         <v>0.87804878048780488</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="34">
         <f>('Schewartz - NewAlpha'!B20)/('Schewartz - NewAlpha'!B20+'Schewartz - NewAlpha'!D20)</f>
         <v>0.99042145593869735</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="35">
         <f>('Schewartz - NewAlpha'!E20)/('Schewartz - NewAlpha'!C20+'Schewartz - NewAlpha'!E20)</f>
         <v>0.98181818181818181</v>
       </c>
@@ -7027,23 +7046,23 @@
       <c r="A21" s="15">
         <v>213</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="36">
         <f>('Schewartz - NewAlpha'!B21+'Schewartz - NewAlpha'!E21 )/('Schewartz - NewAlpha'!B21+'Schewartz - NewAlpha'!C21+'Schewartz - NewAlpha'!D21+'Schewartz - NewAlpha'!E21 )</f>
         <v>0.99673024523160758</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="34">
         <f>('Schewartz - NewAlpha'!B21 )/ ('Schewartz - NewAlpha'!B21+'Schewartz - NewAlpha'!C21)</f>
         <v>0.99940476190476191</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <f>('Schewartz - NewAlpha'!E21)/('Schewartz - NewAlpha'!D21+'Schewartz - NewAlpha'!E21)</f>
         <v>0.967741935483871</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="34">
         <f>('Schewartz - NewAlpha'!B21)/('Schewartz - NewAlpha'!B21+'Schewartz - NewAlpha'!D21)</f>
         <v>0.99703087885985753</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="35">
         <f>('Schewartz - NewAlpha'!E21)/('Schewartz - NewAlpha'!C21+'Schewartz - NewAlpha'!E21)</f>
         <v>0.99337748344370858</v>
       </c>
@@ -7082,23 +7101,23 @@
       <c r="A22" s="15">
         <v>214</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="36">
         <f>('Schewartz - NewAlpha'!B22+'Schewartz - NewAlpha'!E22 )/('Schewartz - NewAlpha'!B22+'Schewartz - NewAlpha'!C22+'Schewartz - NewAlpha'!D22+'Schewartz - NewAlpha'!E22 )</f>
         <v>0.99581881533101047</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="34">
         <f>('Schewartz - NewAlpha'!B22 )/ ('Schewartz - NewAlpha'!B22+'Schewartz - NewAlpha'!C22)</f>
         <v>0.99921259842519683</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <f>('Schewartz - NewAlpha'!E22)/('Schewartz - NewAlpha'!D22+'Schewartz - NewAlpha'!E22)</f>
         <v>0.96969696969696972</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="34">
         <f>('Schewartz - NewAlpha'!B22)/('Schewartz - NewAlpha'!B22+'Schewartz - NewAlpha'!D22)</f>
         <v>0.99607535321821039</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="35">
         <f>('Schewartz - NewAlpha'!E22)/('Schewartz - NewAlpha'!C22+'Schewartz - NewAlpha'!E22)</f>
         <v>0.99378881987577639</v>
       </c>
@@ -7137,23 +7156,23 @@
       <c r="A23" s="15">
         <v>215</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="36">
         <f>('Schewartz - NewAlpha'!B23+'Schewartz - NewAlpha'!E23 )/('Schewartz - NewAlpha'!B23+'Schewartz - NewAlpha'!C23+'Schewartz - NewAlpha'!D23+'Schewartz - NewAlpha'!E23 )</f>
         <v>0.99906846762925017</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="34">
         <f>('Schewartz - NewAlpha'!B23 )/ ('Schewartz - NewAlpha'!B23+'Schewartz - NewAlpha'!C23)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <f>('Schewartz - NewAlpha'!E23)/('Schewartz - NewAlpha'!D23+'Schewartz - NewAlpha'!E23)</f>
         <v>0.978494623655914</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="34">
         <f>('Schewartz - NewAlpha'!B23)/('Schewartz - NewAlpha'!B23+'Schewartz - NewAlpha'!D23)</f>
         <v>0.99902723735408561</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="35">
         <f>('Schewartz - NewAlpha'!E23)/('Schewartz - NewAlpha'!C23+'Schewartz - NewAlpha'!E23)</f>
         <v>1</v>
       </c>
@@ -7192,23 +7211,23 @@
       <c r="A24" s="15">
         <v>219</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="36">
         <f>('Schewartz - NewAlpha'!B24+'Schewartz - NewAlpha'!E24 )/('Schewartz - NewAlpha'!B24+'Schewartz - NewAlpha'!C24+'Schewartz - NewAlpha'!D24+'Schewartz - NewAlpha'!E24 )</f>
         <v>0.99097744360902251</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="34">
         <f>('Schewartz - NewAlpha'!B24 )/ ('Schewartz - NewAlpha'!B24+'Schewartz - NewAlpha'!C24)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <f>('Schewartz - NewAlpha'!E24)/('Schewartz - NewAlpha'!D24+'Schewartz - NewAlpha'!E24)</f>
         <v>0.68421052631578949</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="34">
         <f>('Schewartz - NewAlpha'!B24)/('Schewartz - NewAlpha'!B24+'Schewartz - NewAlpha'!D24)</f>
         <v>0.99079754601226999</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="35">
         <f>('Schewartz - NewAlpha'!E24)/('Schewartz - NewAlpha'!C24+'Schewartz - NewAlpha'!E24)</f>
         <v>1</v>
       </c>
@@ -7247,22 +7266,22 @@
       <c r="A25" s="15">
         <v>220</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="36">
         <f>('Schewartz - NewAlpha'!B25+'Schewartz - NewAlpha'!E25 )/('Schewartz - NewAlpha'!B25+'Schewartz - NewAlpha'!C25+'Schewartz - NewAlpha'!D25+'Schewartz - NewAlpha'!E25 )</f>
         <v>1</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="34">
         <f>('Schewartz - NewAlpha'!B25 )/ ('Schewartz - NewAlpha'!B25+'Schewartz - NewAlpha'!C25)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="34">
         <f>('Schewartz - NewAlpha'!B25)/('Schewartz - NewAlpha'!B25+'Schewartz - NewAlpha'!D25)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="14">
@@ -7300,23 +7319,23 @@
       <c r="A26" s="15">
         <v>221</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="36">
         <f>('Schewartz - NewAlpha'!B26+'Schewartz - NewAlpha'!E26 )/('Schewartz - NewAlpha'!B26+'Schewartz - NewAlpha'!C26+'Schewartz - NewAlpha'!D26+'Schewartz - NewAlpha'!E26 )</f>
         <v>0.99364272091544814</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <f>('Schewartz - NewAlpha'!B26 )/ ('Schewartz - NewAlpha'!B26+'Schewartz - NewAlpha'!C26)</f>
         <v>1</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <f>('Schewartz - NewAlpha'!E26)/('Schewartz - NewAlpha'!D26+'Schewartz - NewAlpha'!E26)</f>
         <v>0.96527777777777779</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="34">
         <f>('Schewartz - NewAlpha'!B26)/('Schewartz - NewAlpha'!B26+'Schewartz - NewAlpha'!D26)</f>
         <v>0.99227799227799229</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="35">
         <f>('Schewartz - NewAlpha'!E26)/('Schewartz - NewAlpha'!C26+'Schewartz - NewAlpha'!E26)</f>
         <v>1</v>
       </c>
@@ -7355,23 +7374,23 @@
       <c r="A27" s="15">
         <v>223</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="36">
         <f>('Schewartz - NewAlpha'!B27+'Schewartz - NewAlpha'!E27 )/('Schewartz - NewAlpha'!B27+'Schewartz - NewAlpha'!C27+'Schewartz - NewAlpha'!D27+'Schewartz - NewAlpha'!E27 )</f>
         <v>0.93585827733659133</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="34">
         <f>('Schewartz - NewAlpha'!B27 )/ ('Schewartz - NewAlpha'!B27+'Schewartz - NewAlpha'!C27)</f>
         <v>0.96653696498054475</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="34">
         <f>('Schewartz - NewAlpha'!E27)/('Schewartz - NewAlpha'!D27+'Schewartz - NewAlpha'!E27)</f>
         <v>0.82386363636363635</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="34">
         <f>('Schewartz - NewAlpha'!B27)/('Schewartz - NewAlpha'!B27+'Schewartz - NewAlpha'!D27)</f>
         <v>0.9524539877300614</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="35">
         <f>('Schewartz - NewAlpha'!E27)/('Schewartz - NewAlpha'!C27+'Schewartz - NewAlpha'!E27)</f>
         <v>0.87087087087087089</v>
       </c>
@@ -7410,23 +7429,23 @@
       <c r="A28" s="15">
         <v>228</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="36">
         <f>('Schewartz - NewAlpha'!B28+'Schewartz - NewAlpha'!E28 )/('Schewartz - NewAlpha'!B28+'Schewartz - NewAlpha'!C28+'Schewartz - NewAlpha'!D28+'Schewartz - NewAlpha'!E28 )</f>
         <v>0.99461123941493457</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="34">
         <f>('Schewartz - NewAlpha'!B28 )/ ('Schewartz - NewAlpha'!B28+'Schewartz - NewAlpha'!C28)</f>
         <v>0.99625117150890352</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="34">
         <f>('Schewartz - NewAlpha'!E28)/('Schewartz - NewAlpha'!D28+'Schewartz - NewAlpha'!E28)</f>
         <v>0.98706896551724133</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="34">
         <f>('Schewartz - NewAlpha'!B28)/('Schewartz - NewAlpha'!B28+'Schewartz - NewAlpha'!D28)</f>
         <v>0.99718574108818014</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="35">
         <f>('Schewartz - NewAlpha'!E28)/('Schewartz - NewAlpha'!C28+'Schewartz - NewAlpha'!E28)</f>
         <v>0.98283261802575106</v>
       </c>
@@ -7465,54 +7484,54 @@
       <c r="A29" s="16">
         <v>233</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="36">
         <f>('Schewartz - NewAlpha'!B29+'Schewartz - NewAlpha'!E29 )/('Schewartz - NewAlpha'!B29+'Schewartz - NewAlpha'!C29+'Schewartz - NewAlpha'!D29+'Schewartz - NewAlpha'!E29 )</f>
         <v>0.99592460519612835</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="34">
         <f>('Schewartz - NewAlpha'!B29 )/ ('Schewartz - NewAlpha'!B29+'Schewartz - NewAlpha'!C29)</f>
         <v>0.99653739612188363</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="34">
         <f>('Schewartz - NewAlpha'!E29)/('Schewartz - NewAlpha'!D29+'Schewartz - NewAlpha'!E29)</f>
         <v>0.9942196531791907</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="34">
         <f>('Schewartz - NewAlpha'!B29)/('Schewartz - NewAlpha'!B29+'Schewartz - NewAlpha'!D29)</f>
         <v>0.99791955617198336</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="35">
         <f>('Schewartz - NewAlpha'!E29)/('Schewartz - NewAlpha'!C29+'Schewartz - NewAlpha'!E29)</f>
         <v>0.99040307101727443</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="32">
         <v>0.68720000000000003</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="32">
         <v>0.78949999999999998</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="32">
         <v>0.4027</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="32">
         <v>0.78620000000000001</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <v>0.40739999999999998</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="32">
         <v>0.68869999999999998</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="32">
         <v>0.79359999999999997</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="32">
         <v>0.39689999999999998</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="32">
         <v>0.78549999999999998</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="32">
         <v>0.40870000000000001</v>
       </c>
     </row>
@@ -7520,23 +7539,23 @@
       <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="36">
         <f>AVERAGE(B3:B29)</f>
-        <v>0.9600335629619392</v>
-      </c>
-      <c r="C30" s="38">
+        <v>0.9600406521821141</v>
+      </c>
+      <c r="C30" s="36">
         <f t="shared" ref="C30:F30" si="0">AVERAGE(C3:C29)</f>
         <v>0.97308773197056919</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <f t="shared" si="0"/>
         <v>0.76347506862867964</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="36">
         <f t="shared" si="0"/>
         <v>0.98377214908723742</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="36">
         <f t="shared" si="0"/>
         <v>0.90434371686349413</v>
       </c>
@@ -7589,10 +7608,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7613,24 +7632,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30">
-      <c r="B1" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
@@ -7675,1110 +7694,603 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>100</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1436</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="3">
-        <v>1419</v>
+        <v>1591</v>
       </c>
       <c r="G3" s="4">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1436</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1618</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>105</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1602</v>
-      </c>
-      <c r="C4" s="7">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7">
-        <v>5</v>
-      </c>
-      <c r="E4" s="8">
-        <v>18</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="6">
-        <v>1589</v>
+        <v>1021</v>
       </c>
       <c r="G4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="8">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="J4" s="6">
-        <v>1613</v>
+        <v>1019</v>
       </c>
       <c r="K4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="M4" s="8">
-        <v>19</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>106</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1013</v>
-      </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8">
-        <v>258</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1019</v>
-      </c>
-      <c r="G5" s="7">
+        <v>108</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="39">
+        <v>1099</v>
+      </c>
+      <c r="G5" s="39">
         <v>2</v>
       </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
-        <v>255</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1021</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>71</v>
-      </c>
-      <c r="M5" s="8">
-        <v>208</v>
-      </c>
+      <c r="H5" s="39">
+        <v>10</v>
+      </c>
+      <c r="I5" s="39">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>108</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1099</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="6">
-        <v>1098</v>
+        <v>1591</v>
       </c>
       <c r="G6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1101</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>10</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1591</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8">
-        <v>16</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="6">
-        <v>1591</v>
+        <v>1123</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I7" s="8">
-        <v>23</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1591</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>113</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1141</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="6">
-        <v>1141</v>
+        <v>1407</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1141</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>114</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1152</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8">
-        <v>22</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="6">
-        <v>1119</v>
+        <v>1327</v>
       </c>
       <c r="G9" s="7">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1124</v>
-      </c>
-      <c r="K9" s="7">
-        <v>28</v>
-      </c>
-      <c r="L9" s="7">
-        <v>26</v>
-      </c>
-      <c r="M9" s="8">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>116</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1445</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>63</v>
-      </c>
-      <c r="E10" s="8">
-        <v>24</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="6">
-        <v>1378</v>
+        <v>994</v>
       </c>
       <c r="G10" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>51</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1384</v>
-      </c>
-      <c r="K10" s="7">
-        <v>62</v>
-      </c>
-      <c r="L10" s="7">
-        <v>36</v>
-      </c>
-      <c r="M10" s="8">
-        <v>51</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>118</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1376</v>
-      </c>
-      <c r="C11" s="7">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="6">
-        <v>1319</v>
+        <v>853</v>
       </c>
       <c r="G11" s="7">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1336</v>
-      </c>
-      <c r="K11" s="7">
-        <v>46</v>
-      </c>
-      <c r="L11" s="7">
-        <v>9</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>119</v>
-      </c>
-      <c r="B12" s="6">
-        <v>994</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>27</v>
-      </c>
-      <c r="E12" s="8">
-        <v>257</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="6">
-        <v>993</v>
+        <v>817</v>
       </c>
       <c r="G12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I12" s="8">
-        <v>284</v>
-      </c>
-      <c r="J12" s="6">
-        <v>994</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>200</v>
-      </c>
-      <c r="B13" s="6">
-        <v>944</v>
-      </c>
-      <c r="C13" s="7">
-        <v>169</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>564</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="6">
-        <v>868</v>
+        <v>1241</v>
       </c>
       <c r="G13" s="7">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="H13" s="7">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="I13" s="8">
-        <v>289</v>
-      </c>
-      <c r="J13" s="6">
-        <v>883</v>
-      </c>
-      <c r="K13" s="7">
-        <v>230</v>
-      </c>
-      <c r="L13" s="7">
-        <v>295</v>
-      </c>
-      <c r="M13" s="8">
-        <v>270</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>201</v>
-      </c>
-      <c r="B14" s="6">
-        <v>817</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>197</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="6">
-        <v>817</v>
+        <v>1619</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>817</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>197</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>202</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1248</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="6">
-        <v>1069</v>
+        <v>618</v>
       </c>
       <c r="G15" s="7">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I15" s="8">
-        <v>2</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1236</v>
-      </c>
-      <c r="K15" s="7">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7">
-        <v>13</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>203</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1445</v>
-      </c>
-      <c r="C16" s="7">
-        <v>186</v>
-      </c>
-      <c r="D16" s="7">
-        <v>14</v>
-      </c>
-      <c r="E16" s="8">
-        <v>286</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="6">
-        <v>1630</v>
+        <v>1497</v>
       </c>
       <c r="G16" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>121</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1631</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>300</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>207</v>
-      </c>
-      <c r="B17" s="6">
-        <v>564</v>
-      </c>
-      <c r="C17" s="7">
-        <v>726</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="6">
-        <v>1270</v>
+        <v>1432</v>
       </c>
       <c r="G17" s="7">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1216</v>
-      </c>
-      <c r="K17" s="7">
-        <v>74</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>208</v>
-      </c>
-      <c r="B18" s="6">
-        <v>988</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8">
-        <v>626</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="6">
-        <v>626</v>
+        <v>1513</v>
       </c>
       <c r="G18" s="7">
-        <v>366</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="I18" s="8">
-        <v>304</v>
-      </c>
-      <c r="J18" s="6">
-        <v>631</v>
-      </c>
-      <c r="K18" s="7">
-        <v>361</v>
-      </c>
-      <c r="L18" s="7">
-        <v>334</v>
-      </c>
-      <c r="M18" s="8">
-        <v>298</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>209</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1593</v>
-      </c>
-      <c r="C19" s="7">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="6">
-        <v>1641</v>
+        <v>1270</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1641</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>210</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1548</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8">
-        <v>111</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="6">
-        <v>1464</v>
+        <v>1973</v>
       </c>
       <c r="G20" s="7">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I20" s="8">
-        <v>32</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1485</v>
-      </c>
-      <c r="K20" s="7">
-        <v>68</v>
-      </c>
-      <c r="L20" s="7">
-        <v>98</v>
-      </c>
-      <c r="M20" s="8">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>213</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1677</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>5</v>
-      </c>
-      <c r="E21" s="8">
-        <v>150</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="6">
-        <v>1520</v>
+        <v>1261</v>
       </c>
       <c r="G21" s="7">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I21" s="8">
-        <v>19</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1532</v>
-      </c>
-      <c r="K21" s="7">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7">
-        <v>136</v>
-      </c>
-      <c r="M21" s="8">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>214</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1269</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
+        <v>221</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6">
+        <v>1285</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
         <v>5</v>
       </c>
-      <c r="E22" s="8">
-        <v>160</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1269</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7">
-        <v>8</v>
-      </c>
       <c r="I22" s="8">
-        <v>157</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1270</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>48</v>
-      </c>
-      <c r="M22" s="8">
-        <v>117</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>215</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2054</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-      <c r="E23" s="8">
-        <v>91</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="6">
-        <v>1975</v>
+        <v>1081</v>
       </c>
       <c r="G23" s="7">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="I23" s="8">
-        <v>11</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1982</v>
-      </c>
-      <c r="K23" s="7">
-        <v>72</v>
-      </c>
-      <c r="L23" s="7">
-        <v>84</v>
-      </c>
-      <c r="M23" s="8">
-        <v>9</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>219</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1292</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>12</v>
-      </c>
-      <c r="E24" s="8">
-        <v>26</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="6">
-        <v>1263</v>
+        <v>1010</v>
       </c>
       <c r="G24" s="7">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H24" s="7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1292</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>38</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>220</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1209</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="6">
-        <v>1202</v>
+        <v>1138</v>
       </c>
       <c r="G25" s="7">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1209</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2">
-        <v>221</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1285</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>9</v>
-      </c>
-      <c r="E26" s="8">
-        <v>279</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1285</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="8">
-        <v>280</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1285</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>10</v>
-      </c>
-      <c r="M26" s="8">
-        <v>278</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="2">
-        <v>223</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1210</v>
-      </c>
-      <c r="C27" s="7">
-        <v>75</v>
-      </c>
-      <c r="D27" s="7">
-        <v>54</v>
-      </c>
-      <c r="E27" s="8">
-        <v>298</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1108</v>
-      </c>
-      <c r="G27" s="7">
-        <v>177</v>
-      </c>
-      <c r="H27" s="7">
-        <v>281</v>
-      </c>
-      <c r="I27" s="8">
-        <v>71</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1285</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>352</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="2">
-        <v>228</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1052</v>
-      </c>
-      <c r="C28" s="7">
-        <v>15</v>
-      </c>
-      <c r="D28" s="7">
-        <v>3</v>
-      </c>
-      <c r="E28" s="8">
-        <v>229</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1012</v>
-      </c>
-      <c r="G28" s="7">
-        <v>55</v>
-      </c>
-      <c r="H28" s="7">
-        <v>63</v>
-      </c>
-      <c r="I28" s="8">
-        <v>169</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1018</v>
-      </c>
-      <c r="K28" s="7">
-        <v>49</v>
-      </c>
-      <c r="L28" s="7">
-        <v>92</v>
-      </c>
-      <c r="M28" s="8">
-        <v>140</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2">
-        <v>233</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1436</v>
-      </c>
-      <c r="C29" s="7">
-        <v>8</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2</v>
-      </c>
-      <c r="E29" s="8">
-        <v>517</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1140</v>
-      </c>
-      <c r="G29" s="7">
-        <v>304</v>
-      </c>
-      <c r="H29" s="7">
-        <v>310</v>
-      </c>
-      <c r="I29" s="8">
-        <v>209</v>
-      </c>
-      <c r="J29" s="6">
-        <v>1146</v>
-      </c>
-      <c r="K29" s="7">
-        <v>298</v>
-      </c>
-      <c r="L29" s="7">
-        <v>313</v>
-      </c>
-      <c r="M29" s="8">
-        <v>206</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1"/>
@@ -8887,15 +8399,6 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8911,1636 +8414,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="30">
-      <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="15">
-        <v>100</v>
-      </c>
-      <c r="B3" s="38">
-        <f>(CUSUM!B3+CUSUM!E3 )/(CUSUM!B3+CUSUM!C3+CUSUM!D3+CUSUM!E3 )</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="36">
-        <f>(CUSUM!B3 )/(CUSUM!B3+CUSUM!C3 )</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="36">
-        <f>(CUSUM!B3 )/(CUSUM!B3+CUSUM!D3 )</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1</v>
-      </c>
-      <c r="K3" s="30">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>1</v>
-      </c>
-      <c r="M3" s="14">
-        <v>1</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14">
-        <v>1</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="15">
-        <v>105</v>
-      </c>
-      <c r="B4" s="38">
-        <f>(CUSUM!B4+CUSUM!E4 )/(CUSUM!B4+CUSUM!C4+CUSUM!D4+CUSUM!E4 )</f>
-        <v>0.98720292504570384</v>
-      </c>
-      <c r="C4" s="36">
-        <f>(CUSUM!B4 )/(CUSUM!B4+CUSUM!C4 )</f>
-        <v>0.99011124845488252</v>
-      </c>
-      <c r="D4" s="36">
-        <f>(CUSUM!E4 )/( CUSUM!D4+CUSUM!E4)</f>
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="E4" s="36">
-        <f>(CUSUM!B4 )/(CUSUM!B4+CUSUM!D4 )</f>
-        <v>0.99688861232109516</v>
-      </c>
-      <c r="F4" s="37">
-        <f>(CUSUM!E4 ) / (CUSUM!C4+CUSUM!E4 )</f>
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1</v>
-      </c>
-      <c r="K4" s="30">
-        <v>0.44230000000000003</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0.99690000000000001</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0.82609999999999995</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0.99750000000000005</v>
-      </c>
-      <c r="P4" s="14">
-        <v>0.79169999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="15">
-        <v>106</v>
-      </c>
-      <c r="B5" s="38">
-        <f>(CUSUM!B5+CUSUM!E5 )/(CUSUM!B5+CUSUM!C5+CUSUM!D5+CUSUM!E5 )</f>
-        <v>0.97769230769230764</v>
-      </c>
-      <c r="C5" s="36">
-        <f>(CUSUM!B5 )/(CUSUM!B5+CUSUM!C5 )</f>
-        <v>0.99216454456415282</v>
-      </c>
-      <c r="D5" s="36">
-        <f>(CUSUM!E5 )/( CUSUM!D5+CUSUM!E5)</f>
-        <v>0.92473118279569888</v>
-      </c>
-      <c r="E5" s="36">
-        <f>(CUSUM!B5 )/(CUSUM!B5+CUSUM!D5 )</f>
-        <v>0.97969052224371378</v>
-      </c>
-      <c r="F5" s="37">
-        <f>(CUSUM!E5 ) / (CUSUM!C5+CUSUM!E5 )</f>
-        <v>0.96992481203007519</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0.98</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.998</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="K5" s="30">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="M5" s="14">
-        <v>1</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="P5" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="15">
-        <v>108</v>
-      </c>
-      <c r="B6" s="38">
-        <f>(CUSUM!B6+CUSUM!E6 )/(CUSUM!B6+CUSUM!C6+CUSUM!D6+CUSUM!E6 )</f>
-        <v>0.99099909990999102</v>
-      </c>
-      <c r="C6" s="36">
-        <f>(CUSUM!B6 )/(CUSUM!B6+CUSUM!C6 )</f>
-        <v>0.99818346957311532</v>
-      </c>
-      <c r="D6" s="36">
-        <f>(CUSUM!E6 )/( CUSUM!D6+CUSUM!E6)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="36">
-        <f>(CUSUM!B6 )/(CUSUM!B6+CUSUM!D6 )</f>
-        <v>0.99277326106594399</v>
-      </c>
-      <c r="F6" s="37">
-        <f>(CUSUM!E6 ) / (CUSUM!C6+CUSUM!E6 )</f>
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="K6" s="30">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="M6" s="14">
-        <v>1</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="15">
-        <v>109</v>
-      </c>
-      <c r="B7" s="38">
-        <f>(CUSUM!B7+CUSUM!E7 )/(CUSUM!B7+CUSUM!C7+CUSUM!D7+CUSUM!E7 )</f>
-        <v>0.99566294919454768</v>
-      </c>
-      <c r="C7" s="36">
-        <f>(CUSUM!B7 )/(CUSUM!B7+CUSUM!C7 )</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="36">
-        <f>(CUSUM!E7 )/( CUSUM!D7+CUSUM!E7)</f>
-        <v>0.69565217391304346</v>
-      </c>
-      <c r="E7" s="36">
-        <f>(CUSUM!B7 )/(CUSUM!B7+CUSUM!D7 )</f>
-        <v>0.99561952440550683</v>
-      </c>
-      <c r="F7" s="37">
-        <f>(CUSUM!E7 ) / (CUSUM!C7+CUSUM!E7 )</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1</v>
-      </c>
-      <c r="K7" s="30">
-        <v>1</v>
-      </c>
-      <c r="L7" s="14">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14">
-        <v>1</v>
-      </c>
-      <c r="O7" s="14">
-        <v>1</v>
-      </c>
-      <c r="P7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="15">
-        <v>113</v>
-      </c>
-      <c r="B8" s="38">
-        <f>(CUSUM!B8+CUSUM!E8 )/(CUSUM!B8+CUSUM!C8+CUSUM!D8+CUSUM!E8 )</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="36">
-        <f>(CUSUM!B8 )/(CUSUM!B8+CUSUM!C8 )</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="36">
-        <f>(CUSUM!B8 )/(CUSUM!B8+CUSUM!D8 )</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="14">
-        <v>1</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14">
-        <v>1</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="14">
-        <v>1</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="15">
-        <v>114</v>
-      </c>
-      <c r="B9" s="38">
-        <f>(CUSUM!B9+CUSUM!E9 )/(CUSUM!B9+CUSUM!C9+CUSUM!D9+CUSUM!E9 )</f>
-        <v>0.99323181049069376</v>
-      </c>
-      <c r="C9" s="36">
-        <f>(CUSUM!B9 )/(CUSUM!B9+CUSUM!C9 )</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="36">
-        <f>(CUSUM!E9 )/( CUSUM!D9+CUSUM!E9)</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="E9" s="36">
-        <f>(CUSUM!B9 )/(CUSUM!B9+CUSUM!D9 )</f>
-        <v>0.99310344827586206</v>
-      </c>
-      <c r="F9" s="37">
-        <f>(CUSUM!E9 ) / (CUSUM!C9+CUSUM!E9 )</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0.95009999999999994</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0.1333</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="K9" s="30">
-        <v>0.1081</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0.95430000000000004</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0.97570000000000001</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.1333</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0.97740000000000005</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="15">
-        <v>116</v>
-      </c>
-      <c r="B10" s="38">
-        <f>(CUSUM!B10+CUSUM!E10 )/(CUSUM!B10+CUSUM!C10+CUSUM!D10+CUSUM!E10 )</f>
-        <v>0.95825179386823223</v>
-      </c>
-      <c r="C10" s="36">
-        <f>(CUSUM!B10 )/(CUSUM!B10+CUSUM!C10 )</f>
-        <v>0.99930843706777317</v>
-      </c>
-      <c r="D10" s="36">
-        <f>(CUSUM!E10 )/( CUSUM!D10+CUSUM!E10)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="E10" s="36">
-        <f>(CUSUM!B10 )/(CUSUM!B10+CUSUM!D10 )</f>
-        <v>0.95822281167108758</v>
-      </c>
-      <c r="F10" s="37">
-        <f>(CUSUM!E10 ) / (CUSUM!C10+CUSUM!E10 )</f>
-        <v>0.96</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0.93220000000000003</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0.58620000000000005</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="K10" s="30">
-        <v>0.42859999999999998</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0.93610000000000004</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0.95709999999999995</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0.58620000000000005</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0.97460000000000002</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0.45129999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="15">
-        <v>118</v>
-      </c>
-      <c r="B11" s="38">
-        <f>(CUSUM!B11+CUSUM!E11 )/(CUSUM!B11+CUSUM!C11+CUSUM!D11+CUSUM!E11 )</f>
-        <v>0.99137311286843999</v>
-      </c>
-      <c r="C11" s="36">
-        <f>(CUSUM!B11 )/(CUSUM!B11+CUSUM!C11 )</f>
-        <v>0.99565846599131691</v>
-      </c>
-      <c r="D11" s="36">
-        <f>(CUSUM!E11 )/( CUSUM!D11+CUSUM!E11)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E11" s="36">
-        <f>(CUSUM!B11 )/(CUSUM!B11+CUSUM!D11 )</f>
-        <v>0.99565846599131691</v>
-      </c>
-      <c r="F11" s="37">
-        <f>(CUSUM!E11 ) / (CUSUM!C11+CUSUM!E11 )</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0.94820000000000004</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0.95440000000000003</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.99319999999999997</v>
-      </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0.9667</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="15">
-        <v>119</v>
-      </c>
-      <c r="B12" s="38">
-        <f>(CUSUM!B12+CUSUM!E12 )/(CUSUM!B12+CUSUM!C12+CUSUM!D12+CUSUM!E12 )</f>
-        <v>0.97887323943661975</v>
-      </c>
-      <c r="C12" s="36">
-        <f>(CUSUM!B12 )/(CUSUM!B12+CUSUM!C12 )</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="36">
-        <f>(CUSUM!E12 )/( CUSUM!D12+CUSUM!E12)</f>
-        <v>0.90492957746478875</v>
-      </c>
-      <c r="E12" s="36">
-        <f>(CUSUM!B12 )/(CUSUM!B12+CUSUM!D12 )</f>
-        <v>0.97355533790401572</v>
-      </c>
-      <c r="F12" s="37">
-        <f>(CUSUM!E12 ) / (CUSUM!C12+CUSUM!E12 )</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0.999</v>
-      </c>
-      <c r="I12" s="14">
-        <v>1</v>
-      </c>
-      <c r="J12" s="14">
-        <v>1</v>
-      </c>
-      <c r="K12" s="30">
-        <v>0.99650000000000005</v>
-      </c>
-      <c r="L12" s="14">
-        <v>1</v>
-      </c>
-      <c r="M12" s="14">
-        <v>1</v>
-      </c>
-      <c r="N12" s="14">
-        <v>1</v>
-      </c>
-      <c r="O12" s="14">
-        <v>1</v>
-      </c>
-      <c r="P12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="15">
-        <v>200</v>
-      </c>
-      <c r="B13" s="38">
-        <f>(CUSUM!B13+CUSUM!E13 )/(CUSUM!B13+CUSUM!C13+CUSUM!D13+CUSUM!E13 )</f>
-        <v>0.89868891537544693</v>
-      </c>
-      <c r="C13" s="36">
-        <f>(CUSUM!B13 )/(CUSUM!B13+CUSUM!C13 )</f>
-        <v>0.84815813117699912</v>
-      </c>
-      <c r="D13" s="36">
-        <f>(CUSUM!E13 )/( CUSUM!D13+CUSUM!E13)</f>
-        <v>0.99823008849557526</v>
-      </c>
-      <c r="E13" s="36">
-        <f>(CUSUM!B13 )/(CUSUM!B13+CUSUM!D13 )</f>
-        <v>0.99894179894179891</v>
-      </c>
-      <c r="F13" s="37">
-        <f>(CUSUM!E13 ) / (CUSUM!C13+CUSUM!E13 )</f>
-        <v>0.76944065484311053</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.6895</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0.77990000000000004</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0.51149999999999995</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0.75870000000000004</v>
-      </c>
-      <c r="K13" s="30">
-        <v>0.54120000000000001</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0.68710000000000004</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0.47789999999999999</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0.74960000000000004</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="15">
-        <v>201</v>
-      </c>
-      <c r="B14" s="38">
-        <f>(CUSUM!B14+CUSUM!E14 )/(CUSUM!B14+CUSUM!C14+CUSUM!D14+CUSUM!E14 )</f>
-        <v>0.8057199211045365</v>
-      </c>
-      <c r="C14" s="36">
-        <f>(CUSUM!B14 )/(CUSUM!B14+CUSUM!C14 )</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="36">
-        <f>(CUSUM!B14 )/(CUSUM!B14+CUSUM!D14 )</f>
-        <v>0.8057199211045365</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0.80569999999999997</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0.80569999999999997</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0.80569999999999997</v>
-      </c>
-      <c r="M14" s="14">
-        <v>1</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0.80569999999999997</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="15">
-        <v>202</v>
-      </c>
-      <c r="B15" s="38">
-        <f>(CUSUM!B15+CUSUM!E15 )/(CUSUM!B15+CUSUM!C15+CUSUM!D15+CUSUM!E15 )</f>
-        <v>0.99207606973058637</v>
-      </c>
-      <c r="C15" s="36">
-        <f>(CUSUM!B15 )/(CUSUM!B15+CUSUM!C15 )</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="36">
-        <f>(CUSUM!E15 )/( CUSUM!D15+CUSUM!E15)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E15" s="36">
-        <f>(CUSUM!B15 )/(CUSUM!B15+CUSUM!D15 )</f>
-        <v>0.99205087440381556</v>
-      </c>
-      <c r="F15" s="37">
-        <f>(CUSUM!E15 ) / (CUSUM!C15+CUSUM!E15 )</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0.84870000000000001</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0.85660000000000003</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0.1429</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0.9889</v>
-      </c>
-      <c r="K15" s="30">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="N15" s="14">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0.98960000000000004</v>
-      </c>
-      <c r="P15" s="14">
-        <v>7.6899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="15">
-        <v>203</v>
-      </c>
-      <c r="B16" s="38">
-        <f>(CUSUM!B16+CUSUM!E16 )/(CUSUM!B16+CUSUM!C16+CUSUM!D16+CUSUM!E16 )</f>
-        <v>0.89642672190574835</v>
-      </c>
-      <c r="C16" s="36">
-        <f>(CUSUM!B16 )/(CUSUM!B16+CUSUM!C16 )</f>
-        <v>0.8859595340282036</v>
-      </c>
-      <c r="D16" s="36">
-        <f>(CUSUM!E16 )/( CUSUM!D16+CUSUM!E16)</f>
-        <v>0.95333333333333337</v>
-      </c>
-      <c r="E16" s="36">
-        <f>(CUSUM!B16 )/(CUSUM!B16+CUSUM!D16 )</f>
-        <v>0.99040438656614116</v>
-      </c>
-      <c r="F16" s="37">
-        <f>(CUSUM!E16 ) / (CUSUM!C16+CUSUM!E16 )</f>
-        <v>0.60593220338983056</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.90680000000000005</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0.40329999999999999</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.90110000000000001</v>
-      </c>
-      <c r="K16" s="30">
-        <v>0.99180000000000001</v>
-      </c>
-      <c r="L16" s="14">
-        <v>0.84460000000000002</v>
-      </c>
-      <c r="M16" s="14">
-        <v>1</v>
-      </c>
-      <c r="N16" s="14">
-        <v>0</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0.84460000000000002</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="15">
-        <v>207</v>
-      </c>
-      <c r="B17" s="38">
-        <f>(CUSUM!B17+CUSUM!E17 )/(CUSUM!B17+CUSUM!C17+CUSUM!D17+CUSUM!E17 )</f>
-        <v>0.43720930232558142</v>
-      </c>
-      <c r="C17" s="36">
-        <f>(CUSUM!B17 )/(CUSUM!B17+CUSUM!C17 )</f>
-        <v>0.43720930232558142</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="36">
-        <f>(CUSUM!B17 )/(CUSUM!B17+CUSUM!D17 )</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0.98450000000000004</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0.98450000000000004</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="14">
-        <v>1</v>
-      </c>
-      <c r="K17" s="30">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="14">
-        <v>1</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="15">
-        <v>208</v>
-      </c>
-      <c r="B18" s="38">
-        <f>(CUSUM!B18+CUSUM!E18 )/(CUSUM!B18+CUSUM!C18+CUSUM!D18+CUSUM!E18 )</f>
-        <v>0.99384236453201968</v>
-      </c>
-      <c r="C18" s="36">
-        <f>(CUSUM!B18 )/(CUSUM!B18+CUSUM!C18 )</f>
-        <v>0.99596774193548387</v>
-      </c>
-      <c r="D18" s="36">
-        <f>(CUSUM!E18 )/( CUSUM!D18+CUSUM!E18)</f>
-        <v>0.990506329113924</v>
-      </c>
-      <c r="E18" s="36">
-        <f>(CUSUM!B18 )/(CUSUM!B18+CUSUM!D18 )</f>
-        <v>0.99396378269617702</v>
-      </c>
-      <c r="F18" s="37">
-        <f>(CUSUM!E18 ) / (CUSUM!C18+CUSUM!E18 )</f>
-        <v>0.99365079365079367</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0.57269999999999999</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="K18" s="30">
-        <v>0.45369999999999999</v>
-      </c>
-      <c r="L18" s="14">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="M18" s="14">
-        <v>0.6361</v>
-      </c>
-      <c r="N18" s="14">
-        <v>0.47149999999999997</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0.65390000000000004</v>
-      </c>
-      <c r="P18" s="14">
-        <v>0.45219999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="15">
-        <v>209</v>
-      </c>
-      <c r="B19" s="38">
-        <f>(CUSUM!B19+CUSUM!E19 )/(CUSUM!B19+CUSUM!C19+CUSUM!D19+CUSUM!E19 )</f>
-        <v>0.97076735688185145</v>
-      </c>
-      <c r="C19" s="36">
-        <f>(CUSUM!B19 )/(CUSUM!B19+CUSUM!C19 )</f>
-        <v>0.97074954296160876</v>
-      </c>
-      <c r="D19" s="36">
-        <f>(CUSUM!E19 )/( CUSUM!D19+CUSUM!E19)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="36">
-        <f>(CUSUM!B19 )/(CUSUM!B19+CUSUM!D19 )</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="37">
-        <f>(CUSUM!E19 ) / (CUSUM!C19+CUSUM!E19 )</f>
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="14">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="M19" s="14">
-        <v>1</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="15">
-        <v>210</v>
-      </c>
-      <c r="B20" s="38">
-        <f>(CUSUM!B20+CUSUM!E20 )/(CUSUM!B20+CUSUM!C20+CUSUM!D20+CUSUM!E20 )</f>
-        <v>0.98985680190930792</v>
-      </c>
-      <c r="C20" s="36">
-        <f>(CUSUM!B20 )/(CUSUM!B20+CUSUM!C20 )</f>
-        <v>0.99678042498390218</v>
-      </c>
-      <c r="D20" s="36">
-        <f>(CUSUM!E20 )/( CUSUM!D20+CUSUM!E20)</f>
-        <v>0.90243902439024393</v>
-      </c>
-      <c r="E20" s="36">
-        <f>(CUSUM!B20 )/(CUSUM!B20+CUSUM!D20 )</f>
-        <v>0.99230769230769234</v>
-      </c>
-      <c r="F20" s="37">
-        <f>(CUSUM!E20 ) / (CUSUM!C20+CUSUM!E20 )</f>
-        <v>0.9568965517241379</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0.89259999999999995</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.94269999999999998</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0.26019999999999999</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.9415</v>
-      </c>
-      <c r="K20" s="30">
-        <v>0.26450000000000001</v>
-      </c>
-      <c r="L20" s="14">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="M20" s="14">
-        <v>0.95620000000000005</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0.20330000000000001</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0.93810000000000004</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0.26879999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="15">
-        <v>213</v>
-      </c>
-      <c r="B21" s="38">
-        <f>(CUSUM!B21+CUSUM!E21 )/(CUSUM!B21+CUSUM!C21+CUSUM!D21+CUSUM!E21 )</f>
-        <v>0.99564032697547689</v>
-      </c>
-      <c r="C21" s="36">
-        <f>(CUSUM!B21 )/(CUSUM!B21+CUSUM!C21 )</f>
-        <v>0.99821428571428572</v>
-      </c>
-      <c r="D21" s="36">
-        <f>(CUSUM!E21 )/( CUSUM!D21+CUSUM!E21)</f>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="E21" s="36">
-        <f>(CUSUM!B21 )/(CUSUM!B21+CUSUM!D21 )</f>
-        <v>0.99702734839476814</v>
-      </c>
-      <c r="F21" s="37">
-        <f>(CUSUM!E21 ) / (CUSUM!C21+CUSUM!E21 )</f>
-        <v>0.98039215686274506</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0.8387</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="I21" s="14">
-        <v>0.1226</v>
-      </c>
-      <c r="J21" s="14">
-        <v>0.91790000000000005</v>
-      </c>
-      <c r="K21" s="30">
-        <v>0.1061</v>
-      </c>
-      <c r="L21" s="14">
-        <v>0.84519999999999995</v>
-      </c>
-      <c r="M21" s="14">
-        <v>0.91190000000000004</v>
-      </c>
-      <c r="N21" s="14">
-        <v>0.1226</v>
-      </c>
-      <c r="O21" s="14">
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="P21" s="14">
-        <v>0.1138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="15">
-        <v>214</v>
-      </c>
-      <c r="B22" s="38">
-        <f>(CUSUM!B22+CUSUM!E22 )/(CUSUM!B22+CUSUM!C22+CUSUM!D22+CUSUM!E22 )</f>
-        <v>0.99581881533101047</v>
-      </c>
-      <c r="C22" s="36">
-        <f>(CUSUM!B22 )/(CUSUM!B22+CUSUM!C22 )</f>
-        <v>0.99921259842519683</v>
-      </c>
-      <c r="D22" s="36">
-        <f>(CUSUM!E22 )/( CUSUM!D22+CUSUM!E22)</f>
-        <v>0.96969696969696972</v>
-      </c>
-      <c r="E22" s="36">
-        <f>(CUSUM!B22 )/(CUSUM!B22+CUSUM!D22 )</f>
-        <v>0.99607535321821039</v>
-      </c>
-      <c r="F22" s="37">
-        <f>(CUSUM!E22 ) / (CUSUM!C22+CUSUM!E22 )</f>
-        <v>0.99378881987577639</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0.95150000000000001</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="K22" s="30">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="L22" s="14">
-        <v>0.96660000000000001</v>
-      </c>
-      <c r="M22" s="14">
-        <v>1</v>
-      </c>
-      <c r="N22" s="14">
-        <v>0.70909999999999995</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0.96360000000000001</v>
-      </c>
-      <c r="P22" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="15">
-        <v>215</v>
-      </c>
-      <c r="B23" s="38">
-        <f>(CUSUM!B23+CUSUM!E23 )/(CUSUM!B23+CUSUM!C23+CUSUM!D23+CUSUM!E23 )</f>
-        <v>0.99906846762925017</v>
-      </c>
-      <c r="C23" s="36">
-        <f>(CUSUM!B23 )/(CUSUM!B23+CUSUM!C23 )</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="36">
-        <f>(CUSUM!E23 )/( CUSUM!D23+CUSUM!E23)</f>
-        <v>0.978494623655914</v>
-      </c>
-      <c r="E23" s="36">
-        <f>(CUSUM!B23 )/(CUSUM!B23+CUSUM!D23 )</f>
-        <v>0.99902723735408561</v>
-      </c>
-      <c r="F23" s="37">
-        <f>(CUSUM!E23 ) / (CUSUM!C23+CUSUM!E23 )</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0.1183</v>
-      </c>
-      <c r="J23" s="14">
-        <v>0.96009999999999995</v>
-      </c>
-      <c r="K23" s="30">
-        <v>0.1222</v>
-      </c>
-      <c r="L23" s="14">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="M23" s="14">
-        <v>0.96489999999999998</v>
-      </c>
-      <c r="N23" s="14">
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="O23" s="14">
-        <v>0.95930000000000004</v>
-      </c>
-      <c r="P23" s="14">
-        <v>0.1111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="15">
-        <v>219</v>
-      </c>
-      <c r="B24" s="38">
-        <f>(CUSUM!B24+CUSUM!E24 )/(CUSUM!B24+CUSUM!C24+CUSUM!D24+CUSUM!E24 )</f>
-        <v>0.99097744360902251</v>
-      </c>
-      <c r="C24" s="36">
-        <f>(CUSUM!B24 )/(CUSUM!B24+CUSUM!C24 )</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="36">
-        <f>(CUSUM!E24 )/( CUSUM!D24+CUSUM!E24)</f>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="E24" s="36">
-        <f>(CUSUM!B24 )/(CUSUM!B24+CUSUM!D24 )</f>
-        <v>0.99079754601226999</v>
-      </c>
-      <c r="F24" s="37">
-        <f>(CUSUM!E24 ) / (CUSUM!C24+CUSUM!E24 )</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0.9496</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0.97760000000000002</v>
-      </c>
-      <c r="I24" s="14">
-        <v>0</v>
-      </c>
-      <c r="J24" s="14">
-        <v>0.9708</v>
-      </c>
-      <c r="K24" s="30">
-        <v>0</v>
-      </c>
-      <c r="L24" s="14">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="M24" s="14">
-        <v>1</v>
-      </c>
-      <c r="N24" s="14">
-        <v>0</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="15">
-        <v>220</v>
-      </c>
-      <c r="B25" s="38">
-        <f>(CUSUM!B25+CUSUM!E25 )/(CUSUM!B25+CUSUM!C25+CUSUM!D25+CUSUM!E25 )</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="36">
-        <f>(CUSUM!B25 )/(CUSUM!B25+CUSUM!C25 )</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="36">
-        <f>(CUSUM!B25 )/(CUSUM!B25+CUSUM!D25 )</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="14">
-        <v>0.99419999999999997</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0.99419999999999997</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="14">
-        <v>1</v>
-      </c>
-      <c r="K25" s="30">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <v>1</v>
-      </c>
-      <c r="M25" s="14">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="14">
-        <v>1</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="15">
-        <v>221</v>
-      </c>
-      <c r="B26" s="38">
-        <f>(CUSUM!B26+CUSUM!E26 )/(CUSUM!B26+CUSUM!C26+CUSUM!D26+CUSUM!E26 )</f>
-        <v>0.99427844882390337</v>
-      </c>
-      <c r="C26" s="36">
-        <f>(CUSUM!B26 )/(CUSUM!B26+CUSUM!C26 )</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="36">
-        <f>(CUSUM!E26 )/( CUSUM!D26+CUSUM!E26)</f>
-        <v>0.96875</v>
-      </c>
-      <c r="E26" s="36">
-        <f>(CUSUM!B26 )/(CUSUM!B26+CUSUM!D26 )</f>
-        <v>0.99304482225656876</v>
-      </c>
-      <c r="F26" s="37">
-        <f>(CUSUM!E26 ) / (CUSUM!C26+CUSUM!E26 )</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="14">
-        <v>0.99490000000000001</v>
-      </c>
-      <c r="H26" s="14">
-        <v>1</v>
-      </c>
-      <c r="I26" s="14">
-        <v>0.97219999999999995</v>
-      </c>
-      <c r="J26" s="14">
-        <v>0.99380000000000002</v>
-      </c>
-      <c r="K26" s="30">
-        <v>1</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0.99360000000000004</v>
-      </c>
-      <c r="M26" s="14">
-        <v>1</v>
-      </c>
-      <c r="N26" s="14">
-        <v>0.96530000000000005</v>
-      </c>
-      <c r="O26" s="14">
-        <v>0.99229999999999996</v>
-      </c>
-      <c r="P26" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="15">
-        <v>223</v>
-      </c>
-      <c r="B27" s="38">
-        <f>(CUSUM!B27+CUSUM!E27 )/(CUSUM!B27+CUSUM!C27+CUSUM!D27+CUSUM!E27 )</f>
-        <v>0.92119731215638367</v>
-      </c>
-      <c r="C27" s="36">
-        <f>(CUSUM!B27 )/(CUSUM!B27+CUSUM!C27 )</f>
-        <v>0.94163424124513617</v>
-      </c>
-      <c r="D27" s="36">
-        <f>(CUSUM!E27 )/( CUSUM!D27+CUSUM!E27)</f>
-        <v>0.84659090909090906</v>
-      </c>
-      <c r="E27" s="36">
-        <f>(CUSUM!B27 )/(CUSUM!B27+CUSUM!D27 )</f>
-        <v>0.95727848101265822</v>
-      </c>
-      <c r="F27" s="37">
-        <f>(CUSUM!E27 ) / (CUSUM!C27+CUSUM!E27 )</f>
-        <v>0.79892761394101874</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0.72019999999999995</v>
-      </c>
-      <c r="H27" s="14">
-        <v>0.86229999999999996</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0.20169999999999999</v>
-      </c>
-      <c r="J27" s="14">
-        <v>0.79769999999999996</v>
-      </c>
-      <c r="K27" s="30">
-        <v>0.2863</v>
-      </c>
-      <c r="L27" s="14">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="M27" s="14">
-        <v>1</v>
-      </c>
-      <c r="N27" s="14">
-        <v>0</v>
-      </c>
-      <c r="O27" s="14">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="15">
-        <v>228</v>
-      </c>
-      <c r="B28" s="38">
-        <f>(CUSUM!B28+CUSUM!E28 )/(CUSUM!B28+CUSUM!C28+CUSUM!D28+CUSUM!E28 )</f>
-        <v>0.98614318706697457</v>
-      </c>
-      <c r="C28" s="36">
-        <f>(CUSUM!B28 )/(CUSUM!B28+CUSUM!C28 )</f>
-        <v>0.98594189315838798</v>
-      </c>
-      <c r="D28" s="36">
-        <f>(CUSUM!E28 )/( CUSUM!D28+CUSUM!E28)</f>
-        <v>0.98706896551724133</v>
-      </c>
-      <c r="E28" s="36">
-        <f>(CUSUM!B28 )/(CUSUM!B28+CUSUM!D28 )</f>
-        <v>0.99715639810426537</v>
-      </c>
-      <c r="F28" s="37">
-        <f>(CUSUM!E28 ) / (CUSUM!C28+CUSUM!E28 )</f>
-        <v>0.93852459016393441</v>
-      </c>
-      <c r="G28" s="14">
-        <v>0.90920000000000001</v>
-      </c>
-      <c r="H28" s="14">
-        <v>0.94850000000000001</v>
-      </c>
-      <c r="I28" s="14">
-        <v>0.72840000000000005</v>
-      </c>
-      <c r="J28" s="14">
-        <v>0.94140000000000001</v>
-      </c>
-      <c r="K28" s="30">
-        <v>0.75449999999999995</v>
-      </c>
-      <c r="L28" s="14">
-        <v>0.89149999999999996</v>
-      </c>
-      <c r="M28" s="14">
-        <v>0.95409999999999995</v>
-      </c>
-      <c r="N28" s="14">
-        <v>0.60340000000000005</v>
-      </c>
-      <c r="O28" s="14">
-        <v>0.91710000000000003</v>
-      </c>
-      <c r="P28" s="14">
-        <v>0.74070000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="16">
-        <v>233</v>
-      </c>
-      <c r="B29" s="38">
-        <f>(CUSUM!B29+CUSUM!E29 )/(CUSUM!B29+CUSUM!C29+CUSUM!D29+CUSUM!E29 )</f>
-        <v>0.99490575649516044</v>
-      </c>
-      <c r="C29" s="36">
-        <f>(CUSUM!B29 )/(CUSUM!B29+CUSUM!C29 )</f>
-        <v>0.9944598337950139</v>
-      </c>
-      <c r="D29" s="36">
-        <f>(CUSUM!E29 )/( CUSUM!D29+CUSUM!E29)</f>
-        <v>0.9961464354527938</v>
-      </c>
-      <c r="E29" s="36">
-        <f>(CUSUM!B29 )/(CUSUM!B29+CUSUM!D29 )</f>
-        <v>0.99860917941585536</v>
-      </c>
-      <c r="F29" s="37">
-        <f>(CUSUM!E29 ) / (CUSUM!C29+CUSUM!E29 )</f>
-        <v>0.98476190476190473</v>
-      </c>
-      <c r="G29" s="33">
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="H29" s="33">
-        <v>0.78949999999999998</v>
-      </c>
-      <c r="I29" s="33">
-        <v>0.4027</v>
-      </c>
-      <c r="J29" s="33">
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="K29" s="34">
-        <v>0.40739999999999998</v>
-      </c>
-      <c r="L29" s="33">
-        <v>0.68869999999999998</v>
-      </c>
-      <c r="M29" s="33">
-        <v>0.79359999999999997</v>
-      </c>
-      <c r="N29" s="33">
-        <v>0.39689999999999998</v>
-      </c>
-      <c r="O29" s="33">
-        <v>0.78549999999999998</v>
-      </c>
-      <c r="P29" s="33">
-        <v>0.40870000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="38">
-        <f>AVERAGE(B3:B29)</f>
-        <v>0.95318164630958491</v>
-      </c>
-      <c r="C30" s="38">
-        <f t="shared" ref="C30:F30" si="0">AVERAGE(C3:C29)</f>
-        <v>0.96406347020003846</v>
-      </c>
-      <c r="D30" s="38">
-        <f t="shared" si="0"/>
-        <v>0.78997153598721537</v>
-      </c>
-      <c r="E30" s="38">
-        <f t="shared" si="0"/>
-        <v>0.98473765946916225</v>
-      </c>
-      <c r="F30" s="38">
-        <f t="shared" si="0"/>
-        <v>0.83342697102490215</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="H30" s="14">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="I30" s="14">
-        <v>0.43169999999999997</v>
-      </c>
-      <c r="J30" s="14">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="M30" s="14">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="N30" s="14">
-        <v>0.36559999999999998</v>
-      </c>
-      <c r="O30" s="14">
-        <v>0.93120000000000003</v>
-      </c>
-      <c r="P30" s="14">
-        <v>0.50449999999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/150802_AAMI_Accuracy.xlsx
+++ b/150802_AAMI_Accuracy.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="19">
   <si>
     <t>Accuracy</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEB as VEB (TP) </t>
+  </si>
+  <si>
+    <t>Normal as Normal (TN)</t>
+  </si>
+  <si>
+    <t>VEB as Normal (FN)</t>
+  </si>
+  <si>
+    <t>Normal as VEB (FP)</t>
   </si>
 </sst>
 </file>
@@ -285,7 +297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="346">
+  <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,6 +400,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -741,7 +757,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="346">
+  <cellStyles count="350">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -914,6 +930,8 @@
     <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1086,6 +1104,8 @@
     <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="101" builtinId="5"/>
   </cellStyles>
@@ -7610,25 +7630,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30">
@@ -7656,50 +7677,58 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>105</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="6">
+        <v>1616</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>22</v>
+      </c>
       <c r="F3" s="3">
         <v>1591</v>
       </c>
@@ -7729,10 +7758,18 @@
       <c r="A4" s="2">
         <v>106</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="6">
+        <v>1015</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>278</v>
+      </c>
       <c r="F4" s="6">
         <v>1021</v>
       </c>
@@ -7752,20 +7789,28 @@
         <v>2</v>
       </c>
       <c r="L4" s="7">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M4" s="8">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>108</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="6">
+        <v>1110</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
       <c r="F5" s="39">
         <v>1099</v>
       </c>
@@ -7778,19 +7823,35 @@
       <c r="I5" s="39">
         <v>0</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
+      <c r="J5" s="6">
+        <v>1099</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>10</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>109</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="6">
+        <v>1591</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>23</v>
+      </c>
       <c r="F6" s="6">
         <v>1591</v>
       </c>
@@ -7803,19 +7864,35 @@
       <c r="I6" s="8">
         <v>23</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="6">
+        <v>1591</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>114</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="6">
+        <v>1152</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>28</v>
+      </c>
       <c r="F7" s="6">
         <v>1123</v>
       </c>
@@ -7828,19 +7905,35 @@
       <c r="I7" s="8">
         <v>5</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
+      <c r="J7" s="6">
+        <v>1130</v>
+      </c>
+      <c r="K7" s="7">
+        <v>22</v>
+      </c>
+      <c r="L7" s="7">
+        <v>25</v>
+      </c>
+      <c r="M7" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>116</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="6">
+        <v>1445</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7</v>
+      </c>
       <c r="F8" s="6">
         <v>1407</v>
       </c>
@@ -7853,19 +7946,35 @@
       <c r="I8" s="8">
         <v>50</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="6">
+        <v>1443</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7">
+        <v>74</v>
+      </c>
+      <c r="M8" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>118</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="6">
+        <v>1380</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
       <c r="F9" s="6">
         <v>1327</v>
       </c>
@@ -7878,19 +7987,35 @@
       <c r="I9" s="8">
         <v>0</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
+      <c r="J9" s="6">
+        <v>1355</v>
+      </c>
+      <c r="K9" s="7">
+        <v>27</v>
+      </c>
+      <c r="L9" s="7">
+        <v>9</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>119</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="6">
+        <v>994</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>283</v>
+      </c>
       <c r="F10" s="6">
         <v>994</v>
       </c>
@@ -7903,19 +8028,35 @@
       <c r="I10" s="8">
         <v>284</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="6">
+        <v>994</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>284</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>200</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="6">
+        <v>506</v>
+      </c>
+      <c r="C11" s="7">
+        <v>607</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>565</v>
+      </c>
       <c r="F11" s="6">
         <v>853</v>
       </c>
@@ -7928,19 +8069,35 @@
       <c r="I11" s="8">
         <v>295</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="6">
+        <v>843</v>
+      </c>
+      <c r="K11" s="7">
+        <v>270</v>
+      </c>
+      <c r="L11" s="7">
+        <v>266</v>
+      </c>
+      <c r="M11" s="8">
+        <v>299</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>201</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="6">
+        <v>816</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>195</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
       <c r="F12" s="6">
         <v>817</v>
       </c>
@@ -7953,19 +8110,35 @@
       <c r="I12" s="8">
         <v>0</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
+      <c r="J12" s="6">
+        <v>813</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7">
+        <v>195</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>202</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="6">
+        <v>1248</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
+        <v>6</v>
+      </c>
       <c r="F13" s="6">
         <v>1241</v>
       </c>
@@ -7978,19 +8151,35 @@
       <c r="I13" s="8">
         <v>1</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
+      <c r="J13" s="6">
+        <v>1242</v>
+      </c>
+      <c r="K13" s="7">
+        <v>6</v>
+      </c>
+      <c r="L13" s="7">
+        <v>14</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>203</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="6">
+        <v>1507</v>
+      </c>
+      <c r="C14" s="7">
+        <v>124</v>
+      </c>
+      <c r="D14" s="7">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8">
+        <v>288</v>
+      </c>
       <c r="F14" s="6">
         <v>1619</v>
       </c>
@@ -8003,19 +8192,35 @@
       <c r="I14" s="8">
         <v>270</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="6">
+        <v>1597</v>
+      </c>
+      <c r="K14" s="7">
+        <v>34</v>
+      </c>
+      <c r="L14" s="7">
+        <v>42</v>
+      </c>
+      <c r="M14" s="8">
+        <v>258</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>208</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="6">
+        <v>990</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
+        <v>627</v>
+      </c>
       <c r="F15" s="6">
         <v>618</v>
       </c>
@@ -8028,19 +8233,35 @@
       <c r="I15" s="8">
         <v>309</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
+      <c r="J15" s="6">
+        <v>623</v>
+      </c>
+      <c r="K15" s="7">
+        <v>369</v>
+      </c>
+      <c r="L15" s="7">
+        <v>325</v>
+      </c>
+      <c r="M15" s="8">
+        <v>307</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>209</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="6">
+        <v>1625</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
       <c r="F16" s="6">
         <v>1497</v>
       </c>
@@ -8053,19 +8274,35 @@
       <c r="I16" s="8">
         <v>0</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="6">
+        <v>1503</v>
+      </c>
+      <c r="K16" s="7">
+        <v>138</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>210</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="6">
+        <v>1553</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14</v>
+      </c>
+      <c r="E17" s="8">
+        <v>109</v>
+      </c>
       <c r="F17" s="6">
         <v>1432</v>
       </c>
@@ -8078,19 +8315,35 @@
       <c r="I17" s="8">
         <v>39</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
+      <c r="J17" s="6">
+        <v>1362</v>
+      </c>
+      <c r="K17" s="7">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7">
+        <v>74</v>
+      </c>
+      <c r="M17" s="8">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>213</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="6">
+        <v>1680</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>154</v>
+      </c>
       <c r="F18" s="6">
         <v>1513</v>
       </c>
@@ -8103,19 +8356,35 @@
       <c r="I18" s="8">
         <v>19</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="6">
+        <v>1525</v>
+      </c>
+      <c r="K18" s="7">
+        <v>155</v>
+      </c>
+      <c r="L18" s="7">
+        <v>136</v>
+      </c>
+      <c r="M18" s="8">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>214</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="6">
+        <v>1270</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>163</v>
+      </c>
       <c r="F19" s="6">
         <v>1270</v>
       </c>
@@ -8128,19 +8397,35 @@
       <c r="I19" s="8">
         <v>163</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
+      <c r="J19" s="6">
+        <v>1270</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>9</v>
+      </c>
+      <c r="M19" s="8">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>215</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="6">
+        <v>2054</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>92</v>
+      </c>
       <c r="F20" s="6">
         <v>1973</v>
       </c>
@@ -8153,19 +8438,35 @@
       <c r="I20" s="8">
         <v>11</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
+      <c r="J20" s="6">
+        <v>1977</v>
+      </c>
+      <c r="K20" s="7">
+        <v>77</v>
+      </c>
+      <c r="L20" s="7">
+        <v>82</v>
+      </c>
+      <c r="M20" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>219</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="6">
+        <v>1292</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8">
+        <v>26</v>
+      </c>
       <c r="F21" s="6">
         <v>1261</v>
       </c>
@@ -8178,19 +8479,35 @@
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
+      <c r="J21" s="6">
+        <v>1268</v>
+      </c>
+      <c r="K21" s="7">
+        <v>24</v>
+      </c>
+      <c r="L21" s="7">
+        <v>38</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>221</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="6">
+        <v>1285</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8">
+        <v>281</v>
+      </c>
       <c r="F22" s="6">
         <v>1285</v>
       </c>
@@ -8203,19 +8520,35 @@
       <c r="I22" s="8">
         <v>283</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
+      <c r="J22" s="6">
+        <v>1285</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>12</v>
+      </c>
+      <c r="M22" s="8">
+        <v>276</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>223</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="6">
+        <v>1203</v>
+      </c>
+      <c r="C23" s="7">
+        <v>82</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8">
+        <v>328</v>
+      </c>
       <c r="F23" s="6">
         <v>1081</v>
       </c>
@@ -8228,19 +8561,35 @@
       <c r="I23" s="8">
         <v>95</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
+      <c r="J23" s="6">
+        <v>1062</v>
+      </c>
+      <c r="K23" s="7">
+        <v>223</v>
+      </c>
+      <c r="L23" s="7">
+        <v>254</v>
+      </c>
+      <c r="M23" s="8">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>228</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="6">
+        <v>1065</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>232</v>
+      </c>
       <c r="F24" s="6">
         <v>1010</v>
       </c>
@@ -8253,19 +8602,35 @@
       <c r="I24" s="8">
         <v>173</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
+      <c r="J24" s="6">
+        <v>1008</v>
+      </c>
+      <c r="K24" s="7">
+        <v>59</v>
+      </c>
+      <c r="L24" s="7">
+        <v>58</v>
+      </c>
+      <c r="M24" s="8">
+        <v>174</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>233</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="6">
+        <v>1434</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8">
+        <v>515</v>
+      </c>
       <c r="F25" s="6">
         <v>1138</v>
       </c>
@@ -8278,10 +8643,18 @@
       <c r="I25" s="8">
         <v>209</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
+      <c r="J25" s="6">
+        <v>1141</v>
+      </c>
+      <c r="K25" s="7">
+        <v>303</v>
+      </c>
+      <c r="L25" s="7">
+        <v>312</v>
+      </c>
+      <c r="M25" s="8">
+        <v>207</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1"/>
